--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/fi_FI.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/fi_FI.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5199">
   <si>
     <t>translation_group</t>
   </si>
@@ -15568,12 +15568,6 @@
   </si>
   <si>
     <t xml:space="preserve"> ilmoituksia</t>
-  </si>
-  <si>
-    <t>2021-02-24T11:44:54.000000Z</t>
-  </si>
-  <si>
-    <t>2021-02-24T11: 44: 54.000000Z</t>
   </si>
   <si>
     <t>1 day ago</t>
@@ -15960,17 +15954,17 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D2772"/>
+  <dimension ref="A1:D2773"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D2772" sqref="D2772"/>
+      <selection activeCell="D2773" sqref="D2773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.10" style="0"/>
-    <col min="2" max="2" width="9.10" style="0"/>
-    <col min="3" max="3" width="9.10" style="0"/>
+    <col min="2" max="2" width="22" customWidth="true" style="0"/>
+    <col min="3" max="3" width="255.7109375" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.10" style="0"/>
   </cols>
   <sheetData>
@@ -54617,18 +54611,10 @@
       </c>
     </row>
     <row r="2762" spans="1:4">
-      <c r="A2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2762" t="s">
-        <v>5183</v>
-      </c>
-      <c r="D2762" t="s">
-        <v>5184</v>
-      </c>
+      <c r="A2762"/>
+      <c r="B2762"/>
+      <c r="C2762"/>
+      <c r="D2762"/>
     </row>
     <row r="2763" spans="1:4">
       <c r="A2763" t="s">
@@ -54638,10 +54624,10 @@
         <v>4</v>
       </c>
       <c r="C2763" t="s">
-        <v>5185</v>
+        <v>5183</v>
       </c>
       <c r="D2763" t="s">
-        <v>5186</v>
+        <v>5184</v>
       </c>
     </row>
     <row r="2764" spans="1:4">
@@ -54652,10 +54638,10 @@
         <v>4</v>
       </c>
       <c r="C2764" t="s">
-        <v>5187</v>
+        <v>5185</v>
       </c>
       <c r="D2764" t="s">
-        <v>5188</v>
+        <v>5186</v>
       </c>
     </row>
     <row r="2765" spans="1:4">
@@ -54666,10 +54652,10 @@
         <v>4</v>
       </c>
       <c r="C2765" t="s">
-        <v>5189</v>
+        <v>5187</v>
       </c>
       <c r="D2765" t="s">
-        <v>5190</v>
+        <v>5188</v>
       </c>
     </row>
     <row r="2766" spans="1:4">
@@ -54680,10 +54666,10 @@
         <v>4</v>
       </c>
       <c r="C2766" t="s">
-        <v>5191</v>
+        <v>5189</v>
       </c>
       <c r="D2766" t="s">
-        <v>5192</v>
+        <v>5190</v>
       </c>
     </row>
     <row r="2767" spans="1:4">
@@ -54694,10 +54680,10 @@
         <v>4</v>
       </c>
       <c r="C2767" t="s">
-        <v>5193</v>
+        <v>5191</v>
       </c>
       <c r="D2767" t="s">
-        <v>5194</v>
+        <v>5192</v>
       </c>
     </row>
     <row r="2768" spans="1:4">
@@ -54708,10 +54694,10 @@
         <v>4</v>
       </c>
       <c r="C2768" t="s">
-        <v>5195</v>
+        <v>5193</v>
       </c>
       <c r="D2768" t="s">
-        <v>5196</v>
+        <v>5194</v>
       </c>
     </row>
     <row r="2769" spans="1:4">
@@ -54722,10 +54708,10 @@
         <v>4</v>
       </c>
       <c r="C2769" t="s">
-        <v>5197</v>
+        <v>5195</v>
       </c>
       <c r="D2769" t="s">
-        <v>5198</v>
+        <v>5196</v>
       </c>
     </row>
     <row r="2770" spans="1:4">
@@ -54764,11 +54750,17 @@
         <v>4</v>
       </c>
       <c r="C2772" t="s">
-        <v>5199</v>
+        <v>5197</v>
       </c>
       <c r="D2772" t="s">
-        <v>5200</v>
-      </c>
+        <v>5198</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:4">
+      <c r="A2773"/>
+      <c r="B2773"/>
+      <c r="C2773"/>
+      <c r="D2773"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/fi_FI.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/fi_FI.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5886">
   <si>
     <t>translation_group</t>
   </si>
@@ -10169,7 +10169,7 @@
     <t>Seo-asetukset</t>
   </si>
   <si>
-    <t>Fill in the fields for maximum results when finding your website in _x0003_search engines.</t>
+    <t>Fill in the fields for maximum results when finding your website in search engines.</t>
   </si>
   <si>
     <t>Täytä kentät, niin saat parhaan tuloksen, kun löydät verkkosivustosi hakukoneista.</t>
@@ -17098,6 +17098,595 @@
   </si>
   <si>
     <t>Mail providers</t>
+  </si>
+  <si>
+    <t>Welcome to Microweber</t>
+  </si>
+  <si>
+    <t>Tervetuloa Microweberiin</t>
+  </si>
+  <si>
+    <t>Use Microweber to build your website, online shop or blog.</t>
+  </si>
+  <si>
+    <t>Käytä Microweberiä verkkosivustosi, verkkokaupasi tai blogisi rakentamiseen.</t>
+  </si>
+  <si>
+    <t>Create and edit content, sell online, manage orders and clients.</t>
+  </si>
+  <si>
+    <t>Luo ja muokkaa sisältöä, myy verkossa, hallitse tilauksia ja asiakkaita.</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>Poista</t>
+  </si>
+  <si>
+    <t>Abandoned cart's</t>
+  </si>
+  <si>
+    <t>Hylätyt korit</t>
+  </si>
+  <si>
+    <t>You are using this template.</t>
+  </si>
+  <si>
+    <t>Käytät tätä mallia.</t>
+  </si>
+  <si>
+    <t>The change will affect only the current page.</t>
+  </si>
+  <si>
+    <t>Muutos vaikuttaa vain nykyiseen sivuun.</t>
+  </si>
+  <si>
+    <t>Allow multiple templates</t>
+  </si>
+  <si>
+    <t>Salli useita malleja</t>
+  </si>
+  <si>
+    <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
+  </si>
+  <si>
+    <t>Jos sallit useita malleja, pystyt käyttämään erilaisia malleja, kun luot uusia sivuja.</t>
+  </si>
+  <si>
+    <t>System e-mail website settings</t>
+  </si>
+  <si>
+    <t>Järjestelmän sähköpostisivuston asetukset</t>
+  </si>
+  <si>
+    <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
+  </si>
+  <si>
+    <t>Toimita uuteen rekisteröintiin, salasanan palauttamiseen ja muihin järjestelmän toimintoihin liittyviä viestejä.</t>
+  </si>
+  <si>
+    <t>From e-mail address</t>
+  </si>
+  <si>
+    <t>Sähköpostiosoitteesta</t>
+  </si>
+  <si>
+    <t>Ex. Your Website Name</t>
+  </si>
+  <si>
+    <t>Esim. Verkkosivustosi nimi</t>
+  </si>
+  <si>
+    <t>General e-mail provider settings</t>
+  </si>
+  <si>
+    <t>Yleiset sähköpostipalveluntarjoajan asetukset</t>
+  </si>
+  <si>
+    <t>Set up your email provider.</t>
+  </si>
+  <si>
+    <t>Määritä sähköpostipalveluntarjoajasi.</t>
+  </si>
+  <si>
+    <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
+  </si>
+  <si>
+    <t>Yleinen sähköpostin tarjoaja toimittaa kaikki verkkosivustoon liittyvät viestit. Sisältää järjestelmäviestit ja yhteydenottolomakeviestit.</t>
+  </si>
+  <si>
+    <t>Website Logo</t>
+  </si>
+  <si>
+    <t>Verkkosivuston logo</t>
+  </si>
+  <si>
+    <t>Select an logo for your website.</t>
+  </si>
+  <si>
+    <t>Valitse verkkosivustollesi logo.</t>
+  </si>
+  <si>
+    <t>Upload logo</t>
+  </si>
+  <si>
+    <t>Lähetä logo</t>
+  </si>
+  <si>
+    <t>Website Favicon</t>
+  </si>
+  <si>
+    <t>Verkkosivusto Favicon</t>
+  </si>
+  <si>
+    <t>Changing default language..</t>
+  </si>
+  <si>
+    <t>Oletuskielen vaihtaminen ..</t>
+  </si>
+  <si>
+    <t>Clear cache..</t>
+  </si>
+  <si>
+    <t>Tyhjennä välimuisti..</t>
+  </si>
+  <si>
+    <t>Install Multilanguage Module</t>
+  </si>
+  <si>
+    <t>Asenna monikielinen moduuli</t>
+  </si>
+  <si>
+    <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
+  </si>
+  <si>
+    <t>Käyttäjät voivat rekisteröityä väliaikaisilla sähköpostiviesteillä, kuten - Mailinator, MailDrop, Guerrilla ... s</t>
+  </si>
+  <si>
+    <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
+  </si>
+  <si>
+    <t>Rekisteröityneet käyttäjät voivat saada automaattisesti automaattisen sähköpostin sinulta. Katso asetukset ja lähetä viestejä.</t>
+  </si>
+  <si>
+    <t>Send email on new user registration to admin users</t>
+  </si>
+  <si>
+    <t>Lähetä sähköposti uuden käyttäjän rekisteröinnistä järjestelmänvalvojan käyttäjille</t>
+  </si>
+  <si>
+    <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
+  </si>
+  <si>
+    <t>Haluatko, että järjestelmänvalvojat saavat sähköpostin, kun uusi käyttäjä on rekisteröity?</t>
+  </si>
+  <si>
+    <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
+  </si>
+  <si>
+    <t>Microweber on ilmainen avoimen lähdekoodin vedä ja pudota -sivustojen rakennustyökalu ja CMS. Se on MIT-lisenssillä ja käytämme Laravel PHP -kehystä</t>
+  </si>
+  <si>
+    <t>A Slider</t>
+  </si>
+  <si>
+    <t>Shipping to address</t>
+  </si>
+  <si>
+    <t>Toimitus osoitteeseen</t>
+  </si>
+  <si>
+    <t>Pickup from address</t>
+  </si>
+  <si>
+    <t>Nouto osoitteesta</t>
+  </si>
+  <si>
+    <t>Global settings</t>
+  </si>
+  <si>
+    <t>E-mail Integrations</t>
+  </si>
+  <si>
+    <t>You don't have system e-mail and smtp setup.</t>
+  </si>
+  <si>
+    <t>Sinulla ei ole järjestelmän sähköposti- ja smtp-asetuksia.</t>
+  </si>
+  <si>
+    <t>Setup your system settings here.</t>
+  </si>
+  <si>
+    <t>Määritä järjestelmäasetuksesi täällä.</t>
+  </si>
+  <si>
+    <t>Global contact form settings</t>
+  </si>
+  <si>
+    <t>Yleisen yhteydenottolomakkeen asetukset</t>
+  </si>
+  <si>
+    <t>E-mail sending options</t>
+  </si>
+  <si>
+    <t>Sähköpostin lähetysvaihtoehdot</t>
+  </si>
+  <si>
+    <t>Global sender</t>
+  </si>
+  <si>
+    <t>Yleinen lähettäjä</t>
+  </si>
+  <si>
+    <t>Use custom sender settings</t>
+  </si>
+  <si>
+    <t>Käytä mukautettuja lähettäjän asetuksia</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the global contact forms.</t>
+  </si>
+  <si>
+    <t>Käytä mukautettuja lähettäjän asetuksia yleisiin yhteydenottolomakkeisiin.</t>
+  </si>
+  <si>
+    <t>By default we will use website system e-mail settings.</t>
+  </si>
+  <si>
+    <t>Oletuksena käytämme verkkosivustojärjestelmän sähköpostiasetuksia.</t>
+  </si>
+  <si>
+    <t>You can change the system e-mail settings here.</t>
+  </si>
+  <si>
+    <t>Voit muuttaa järjestelmän sähköpostiasetuksia täällä.</t>
+  </si>
+  <si>
+    <t>Global Receivers</t>
+  </si>
+  <si>
+    <t>Globaalit vastaanottimet</t>
+  </si>
+  <si>
+    <t>Send contact forms data to global receivers when is submited</t>
+  </si>
+  <si>
+    <t>Lähetä yhteystietolomakkeiden tiedot globaaleille vastaanottimille, kun ne lähetetään</t>
+  </si>
+  <si>
+    <t>To e-mail addresses</t>
+  </si>
+  <si>
+    <t>Sähköpostiosoitteisiin</t>
+  </si>
+  <si>
+    <t>E-mail address of the receivers seperated with coma.</t>
+  </si>
+  <si>
+    <t>Koomalla erotettujen vastaanottimien sähköpostiosoite.</t>
+  </si>
+  <si>
+    <t>Contact your hosting provider to enable PHP SOAP extension.</t>
+  </si>
+  <si>
+    <t>Ota PHP SOAP -laajennus käyttöön ottamalla yhteyttä palveluntarjoajaasi.</t>
+  </si>
+  <si>
+    <t>Elements</t>
+  </si>
+  <si>
+    <t>Elementit</t>
+  </si>
+  <si>
+    <t>2 months ago</t>
+  </si>
+  <si>
+    <t>2 kuukautta sitten</t>
+  </si>
+  <si>
+    <t>Remove logo</t>
+  </si>
+  <si>
+    <t>Remove favicon</t>
+  </si>
+  <si>
+    <t>Poista favicon</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>Mukautettu</t>
+  </si>
+  <si>
+    <t>bxSlider</t>
+  </si>
+  <si>
+    <t>Schema.org</t>
+  </si>
+  <si>
+    <t>ProductsV2</t>
+  </si>
+  <si>
+    <t>Tuotteet V2</t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>Aikajana</t>
+  </si>
+  <si>
+    <t>White label WHMCS</t>
+  </si>
+  <si>
+    <t>Valkoinen etiketti WHMCS</t>
+  </si>
+  <si>
+    <t>Number of the visible testimonials</t>
+  </si>
+  <si>
+    <t>Module template has changed</t>
+  </si>
+  <si>
+    <t>Moduulimalli on muuttunut</t>
+  </si>
+  <si>
+    <t>Content versions</t>
+  </si>
+  <si>
+    <t>Clear Cache</t>
+  </si>
+  <si>
+    <t>Default layouts and elements</t>
+  </si>
+  <si>
+    <t>Oletusasettelut ja elementit</t>
+  </si>
+  <si>
+    <t>Arrows List</t>
+  </si>
+  <si>
+    <t>Nuoliluettelo</t>
+  </si>
+  <si>
+    <t>Checked List</t>
+  </si>
+  <si>
+    <t>Tarkistettu luettelo</t>
+  </si>
+  <si>
+    <t>Background Text</t>
+  </si>
+  <si>
+    <t>Taustateksti</t>
+  </si>
+  <si>
+    <t>Title with Text</t>
+  </si>
+  <si>
+    <t>Otsikko tekstillä</t>
+  </si>
+  <si>
+    <t>Icon with Text</t>
+  </si>
+  <si>
+    <t>Kuvake tekstillä</t>
+  </si>
+  <si>
+    <t>Two Text Columns</t>
+  </si>
+  <si>
+    <t>Kaksi tekstisaraketta</t>
+  </si>
+  <si>
+    <t>Two text columns with icon and title</t>
+  </si>
+  <si>
+    <t>Kaksi tekstisaraketta kuvakkeella ja otsikolla</t>
+  </si>
+  <si>
+    <t>Image with Title and Text</t>
+  </si>
+  <si>
+    <t>Kuva otsikolla ja tekstillä</t>
+  </si>
+  <si>
+    <t>Text with Image and Title</t>
+  </si>
+  <si>
+    <t>Teksti kuvalla ja otsikolla</t>
+  </si>
+  <si>
+    <t>Text with Image</t>
+  </si>
+  <si>
+    <t>Enable comments</t>
+  </si>
+  <si>
+    <t>Ota kommentit käyttöön</t>
+  </si>
+  <si>
+    <t>Captcha settings</t>
+  </si>
+  <si>
+    <t>Captcha-asetukset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup your captcha preferences from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Määritä captcha-asetuksesi </t>
+  </si>
+  <si>
+    <t>Add / Edit fields of the form using the custom fields</t>
+  </si>
+  <si>
+    <t>Current contact form settings</t>
+  </si>
+  <si>
+    <t>Nykyiset yhteydenottolomakkeen asetukset</t>
+  </si>
+  <si>
+    <t>Contact form name</t>
+  </si>
+  <si>
+    <t>Yhteydenottolomakkeen nimi</t>
+  </si>
+  <si>
+    <t>What is the name of this contact form?</t>
+  </si>
+  <si>
+    <t>Mikä on tämän yhteydenottolomakkeen nimi?</t>
+  </si>
+  <si>
+    <t>Receivers</t>
+  </si>
+  <si>
+    <t>Vastaanottimet</t>
+  </si>
+  <si>
+    <t>Send contact form data to custom receivers when is submited</t>
+  </si>
+  <si>
+    <t>Lähetä yhteydenottolomakkeen tiedot mukautettuihin vastaanottimiin, kun se on lähetetty</t>
+  </si>
+  <si>
+    <t>Use custom receivers settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>Käytä mukautettuja vastaanottimen asetuksia nykyiselle yhteydenottolomakkeelle.</t>
+  </si>
+  <si>
+    <t>By default we will use contact form global settings.</t>
+  </si>
+  <si>
+    <t>Oletuksena käytämme yhteydenottolomakkeen globaaleja asetuksia.</t>
+  </si>
+  <si>
+    <t>You can change the contact form global settings here.</t>
+  </si>
+  <si>
+    <t>Voit muuttaa yhteydenottolomakkeen globaaleja asetuksia täällä.</t>
+  </si>
+  <si>
+    <t>Auto respond message to user</t>
+  </si>
+  <si>
+    <t>Automaattinen vastausviesti käyttäjälle</t>
+  </si>
+  <si>
+    <t>Enable auto respond message to user</t>
+  </si>
+  <si>
+    <t>Ota automaattinen vastausviesti käyttöön käyttäjälle</t>
+  </si>
+  <si>
+    <t>Allow users to receive "Thank you emails after subscription."</t>
+  </si>
+  <si>
+    <t>Auto respond subject</t>
+  </si>
+  <si>
+    <t>Automaattinen vastauskohde</t>
+  </si>
+  <si>
+    <t>Auto responders allows you to set up automated replies to incoming email</t>
+  </si>
+  <si>
+    <t>Automaattivastaaja antaa sinun määrittää automaattiset vastaukset saapuvaan sähköpostiin</t>
+  </si>
+  <si>
+    <t>Auto respond message</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail sent back to the user</t>
+  </si>
+  <si>
+    <t>Automaattivastaussähköposti lähetetään takaisin käyttäjälle</t>
+  </si>
+  <si>
+    <t>Auto respond custom sender</t>
+  </si>
+  <si>
+    <t>Vastaa automaattisesti mukautettuun lähettäjään</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>Käytä mukautettuja lähettäjän asetuksia nykyisessä yhteydenottolomakkeessa.</t>
+  </si>
+  <si>
+    <t>Auto respond from e-mail address</t>
+  </si>
+  <si>
+    <t>Automaattinen vastaus sähköpostiosoitteesta</t>
+  </si>
+  <si>
+    <t>Auto respond from name</t>
+  </si>
+  <si>
+    <t>Automaattinen vastaus nimen perusteella</t>
+  </si>
+  <si>
+    <t>Auto respond reply to e-mail</t>
+  </si>
+  <si>
+    <t>Vastaa automaattisesti sähköpostiin</t>
+  </si>
+  <si>
+    <t>When the user receive the auto respond message they can response back to reply to email.</t>
+  </si>
+  <si>
+    <t>Kun käyttäjä saa automaattisen vastausviestin, hän voi vastata takaisin vastaamaan sähköpostiin.</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail attachments</t>
+  </si>
+  <si>
+    <t>Vastaa sähköpostin liitteisiin automaattisesti</t>
+  </si>
+  <si>
+    <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
+  </si>
+  <si>
+    <t>You don’t have any posts yet</t>
+  </si>
+  <si>
+    <t>Sinulla ei ole vielä viestejä</t>
+  </si>
+  <si>
+    <t>Create your first post right now.</t>
+  </si>
+  <si>
+    <t>Luo ensimmäinen viesti heti.</t>
+  </si>
+  <si>
+    <t>Create a Post</t>
+  </si>
+  <si>
+    <t>Luo viesti</t>
+  </si>
+  <si>
+    <t>templates-new-world</t>
+  </si>
+  <si>
+    <t>How to write product descriptions that sell
+                                                    One of the best things you can do to make your store successful is invest some time in writing great product descriptions. You want to provide detailed yet concise information that will entice potential customers to buy.
+                                                    Think like a consumer
+                                                    Think about what you as a consumer would want to know, then include those features in your description. For clothes: materials and fit. For food: ingredients and how it was prepared. Bullets are your friends when listing
+                                                   features — try to
+                                                            limit each one to 5-8 words.</t>
+  </si>
+  <si>
+    <t>Kuinka kirjoittaa tuotekuvauksia, jotka myyvät
+                                                    Yksi parhaista asioista, joita voit tehdä myymälän menestymiseksi, on investoida jonkin aikaa loistavien tuotekuvausten kirjoittamiseen. Haluat antaa yksityiskohtaisia mutta ytimekkäitä tietoja, jotka houkuttelevat potentiaalisia asiakkaita ostamaan.
+                                                    Ajattele kuin kuluttaja
+                                                    Ajattele, mitä sinä kuluttaja haluaisit tietää, ja sisällytä sitten nämä ominaisuudet kuvaukseen. Vaatteet: materiaalit ja istuvuus. Ruokaa varten: ainesosat ja miten se valmistettiin. Luettelomerkit ovat ystäväsi, kun luet
+                                                   -ominaisuuksia - yritä
+                                                            rajoittaa kukin 5-8 sanaan.</t>
   </si>
 </sst>
 </file>
@@ -17436,7 +18025,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E2959"/>
+  <dimension ref="A1:E3062"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -67744,6 +68333,1757 @@
         <v>3625</v>
       </c>
       <c r="E2959" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:5">
+      <c r="A2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2960" t="s">
+        <v>5693</v>
+      </c>
+      <c r="D2960" t="s">
+        <v>5694</v>
+      </c>
+      <c r="E2960" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:5">
+      <c r="A2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2961" t="s">
+        <v>5695</v>
+      </c>
+      <c r="D2961" t="s">
+        <v>5696</v>
+      </c>
+      <c r="E2961" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:5">
+      <c r="A2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2962" t="s">
+        <v>5697</v>
+      </c>
+      <c r="D2962" t="s">
+        <v>5698</v>
+      </c>
+      <c r="E2962" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:5">
+      <c r="A2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2963" t="s">
+        <v>5699</v>
+      </c>
+      <c r="D2963" t="s">
+        <v>5700</v>
+      </c>
+      <c r="E2963" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:5">
+      <c r="A2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2964" t="s">
+        <v>5701</v>
+      </c>
+      <c r="D2964" t="s">
+        <v>5702</v>
+      </c>
+      <c r="E2964" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:5">
+      <c r="A2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2965" t="s">
+        <v>5703</v>
+      </c>
+      <c r="D2965" t="s">
+        <v>5704</v>
+      </c>
+      <c r="E2965" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:5">
+      <c r="A2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2966" t="s">
+        <v>5705</v>
+      </c>
+      <c r="D2966" t="s">
+        <v>5706</v>
+      </c>
+      <c r="E2966" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:5">
+      <c r="A2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2967" t="s">
+        <v>5707</v>
+      </c>
+      <c r="D2967" t="s">
+        <v>5708</v>
+      </c>
+      <c r="E2967" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:5">
+      <c r="A2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2968" t="s">
+        <v>5709</v>
+      </c>
+      <c r="D2968" t="s">
+        <v>5710</v>
+      </c>
+      <c r="E2968" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:5">
+      <c r="A2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2969" t="s">
+        <v>5711</v>
+      </c>
+      <c r="D2969" t="s">
+        <v>5712</v>
+      </c>
+      <c r="E2969" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:5">
+      <c r="A2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2970" t="s">
+        <v>5713</v>
+      </c>
+      <c r="D2970" t="s">
+        <v>5714</v>
+      </c>
+      <c r="E2970" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:5">
+      <c r="A2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2971" t="s">
+        <v>5715</v>
+      </c>
+      <c r="D2971" t="s">
+        <v>5716</v>
+      </c>
+      <c r="E2971" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:5">
+      <c r="A2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2972" t="s">
+        <v>5717</v>
+      </c>
+      <c r="D2972" t="s">
+        <v>5718</v>
+      </c>
+      <c r="E2972" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:5">
+      <c r="A2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2973" t="s">
+        <v>5719</v>
+      </c>
+      <c r="D2973" t="s">
+        <v>5720</v>
+      </c>
+      <c r="E2973" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:5">
+      <c r="A2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2974" t="s">
+        <v>5721</v>
+      </c>
+      <c r="D2974" t="s">
+        <v>5722</v>
+      </c>
+      <c r="E2974" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:5">
+      <c r="A2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2975" t="s">
+        <v>5723</v>
+      </c>
+      <c r="D2975" t="s">
+        <v>5724</v>
+      </c>
+      <c r="E2975" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:5">
+      <c r="A2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2976" t="s">
+        <v>5725</v>
+      </c>
+      <c r="D2976" t="s">
+        <v>5726</v>
+      </c>
+      <c r="E2976" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:5">
+      <c r="A2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2977" t="s">
+        <v>5727</v>
+      </c>
+      <c r="D2977" t="s">
+        <v>5728</v>
+      </c>
+      <c r="E2977" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:5">
+      <c r="A2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2978" t="s">
+        <v>5729</v>
+      </c>
+      <c r="D2978" t="s">
+        <v>5730</v>
+      </c>
+      <c r="E2978" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:5">
+      <c r="A2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2979" t="s">
+        <v>5731</v>
+      </c>
+      <c r="D2979" t="s">
+        <v>5732</v>
+      </c>
+      <c r="E2979" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:5">
+      <c r="A2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2980" t="s">
+        <v>5733</v>
+      </c>
+      <c r="D2980" t="s">
+        <v>5734</v>
+      </c>
+      <c r="E2980" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:5">
+      <c r="A2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2981" t="s">
+        <v>5735</v>
+      </c>
+      <c r="D2981" t="s">
+        <v>5736</v>
+      </c>
+      <c r="E2981" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:5">
+      <c r="A2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2982" t="s">
+        <v>5737</v>
+      </c>
+      <c r="D2982" t="s">
+        <v>5738</v>
+      </c>
+      <c r="E2982" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:5">
+      <c r="A2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2983" t="s">
+        <v>5739</v>
+      </c>
+      <c r="D2983" t="s">
+        <v>5740</v>
+      </c>
+      <c r="E2983" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:5">
+      <c r="A2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2984" t="s">
+        <v>5741</v>
+      </c>
+      <c r="D2984" t="s">
+        <v>5742</v>
+      </c>
+      <c r="E2984" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:5">
+      <c r="A2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2985" t="s">
+        <v>5743</v>
+      </c>
+      <c r="D2985" t="s">
+        <v>5744</v>
+      </c>
+      <c r="E2985" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:5">
+      <c r="A2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2986" t="s">
+        <v>5745</v>
+      </c>
+      <c r="D2986" t="s">
+        <v>5746</v>
+      </c>
+      <c r="E2986" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:5">
+      <c r="A2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2987" t="s">
+        <v>5747</v>
+      </c>
+      <c r="D2987" t="s">
+        <v>5748</v>
+      </c>
+      <c r="E2987" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:5">
+      <c r="A2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2988" t="s">
+        <v>5749</v>
+      </c>
+      <c r="D2988" t="s">
+        <v>651</v>
+      </c>
+      <c r="E2988" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:5">
+      <c r="A2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2989" t="s">
+        <v>5750</v>
+      </c>
+      <c r="D2989" t="s">
+        <v>5751</v>
+      </c>
+      <c r="E2989" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:5">
+      <c r="A2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2990" t="s">
+        <v>5752</v>
+      </c>
+      <c r="D2990" t="s">
+        <v>5753</v>
+      </c>
+      <c r="E2990" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:5">
+      <c r="A2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2991" t="s">
+        <v>5754</v>
+      </c>
+      <c r="D2991" t="s">
+        <v>3398</v>
+      </c>
+      <c r="E2991" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:5">
+      <c r="A2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2992" t="s">
+        <v>5755</v>
+      </c>
+      <c r="D2992" t="s">
+        <v>2402</v>
+      </c>
+      <c r="E2992" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:5">
+      <c r="A2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2993" t="s">
+        <v>5756</v>
+      </c>
+      <c r="D2993" t="s">
+        <v>5757</v>
+      </c>
+      <c r="E2993" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:5">
+      <c r="A2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2994" t="s">
+        <v>5758</v>
+      </c>
+      <c r="D2994" t="s">
+        <v>5759</v>
+      </c>
+      <c r="E2994" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:5">
+      <c r="A2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2995" t="s">
+        <v>5760</v>
+      </c>
+      <c r="D2995" t="s">
+        <v>5761</v>
+      </c>
+      <c r="E2995" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:5">
+      <c r="A2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2996" t="s">
+        <v>5762</v>
+      </c>
+      <c r="D2996" t="s">
+        <v>5763</v>
+      </c>
+      <c r="E2996" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:5">
+      <c r="A2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2997" t="s">
+        <v>5764</v>
+      </c>
+      <c r="D2997" t="s">
+        <v>5765</v>
+      </c>
+      <c r="E2997" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:5">
+      <c r="A2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2998" t="s">
+        <v>5766</v>
+      </c>
+      <c r="D2998" t="s">
+        <v>5767</v>
+      </c>
+      <c r="E2998" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:5">
+      <c r="A2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2999" t="s">
+        <v>5768</v>
+      </c>
+      <c r="D2999" t="s">
+        <v>5769</v>
+      </c>
+      <c r="E2999" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:5">
+      <c r="A3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3000" t="s">
+        <v>5770</v>
+      </c>
+      <c r="D3000" t="s">
+        <v>5771</v>
+      </c>
+      <c r="E3000" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:5">
+      <c r="A3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3001" t="s">
+        <v>5772</v>
+      </c>
+      <c r="D3001" t="s">
+        <v>5773</v>
+      </c>
+      <c r="E3001" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:5">
+      <c r="A3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3002" t="s">
+        <v>5774</v>
+      </c>
+      <c r="D3002" t="s">
+        <v>5775</v>
+      </c>
+      <c r="E3002" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:5">
+      <c r="A3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3003" t="s">
+        <v>5776</v>
+      </c>
+      <c r="D3003" t="s">
+        <v>5777</v>
+      </c>
+      <c r="E3003" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:5">
+      <c r="A3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3004" t="s">
+        <v>5778</v>
+      </c>
+      <c r="D3004" t="s">
+        <v>5779</v>
+      </c>
+      <c r="E3004" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:5">
+      <c r="A3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3005" t="s">
+        <v>5780</v>
+      </c>
+      <c r="D3005" t="s">
+        <v>5781</v>
+      </c>
+      <c r="E3005" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:5">
+      <c r="A3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3006" t="s">
+        <v>5782</v>
+      </c>
+      <c r="D3006" t="s">
+        <v>5783</v>
+      </c>
+      <c r="E3006" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:5">
+      <c r="A3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3007" t="s">
+        <v>5784</v>
+      </c>
+      <c r="D3007" t="s">
+        <v>5785</v>
+      </c>
+      <c r="E3007" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:5">
+      <c r="A3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3008" t="s">
+        <v>5786</v>
+      </c>
+      <c r="D3008" t="s">
+        <v>5787</v>
+      </c>
+      <c r="E3008" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:5">
+      <c r="A3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3009" t="s">
+        <v>5788</v>
+      </c>
+      <c r="D3009" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E3009" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:5">
+      <c r="A3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3010" t="s">
+        <v>5789</v>
+      </c>
+      <c r="D3010" t="s">
+        <v>5790</v>
+      </c>
+      <c r="E3010" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:5">
+      <c r="A3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3011" t="s">
+        <v>5791</v>
+      </c>
+      <c r="D3011" t="s">
+        <v>5792</v>
+      </c>
+      <c r="E3011" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:5">
+      <c r="A3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3012" t="s">
+        <v>5793</v>
+      </c>
+      <c r="D3012" t="s">
+        <v>5793</v>
+      </c>
+      <c r="E3012" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:5">
+      <c r="A3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3013" t="s">
+        <v>5794</v>
+      </c>
+      <c r="D3013" t="s">
+        <v>5794</v>
+      </c>
+      <c r="E3013" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:5">
+      <c r="A3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3014" t="s">
+        <v>5795</v>
+      </c>
+      <c r="D3014" t="s">
+        <v>5796</v>
+      </c>
+      <c r="E3014" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:5">
+      <c r="A3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3015" t="s">
+        <v>5797</v>
+      </c>
+      <c r="D3015" t="s">
+        <v>5798</v>
+      </c>
+      <c r="E3015" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:5">
+      <c r="A3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3016" t="s">
+        <v>5799</v>
+      </c>
+      <c r="D3016" t="s">
+        <v>5800</v>
+      </c>
+      <c r="E3016" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:5">
+      <c r="A3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3017" t="s">
+        <v>5801</v>
+      </c>
+      <c r="D3017" t="s">
+        <v>3321</v>
+      </c>
+      <c r="E3017" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:5">
+      <c r="A3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3018" t="s">
+        <v>5802</v>
+      </c>
+      <c r="D3018" t="s">
+        <v>5803</v>
+      </c>
+      <c r="E3018" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:5">
+      <c r="A3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3019" t="s">
+        <v>5804</v>
+      </c>
+      <c r="D3019" t="s">
+        <v>3619</v>
+      </c>
+      <c r="E3019" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:5">
+      <c r="A3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3020" t="s">
+        <v>5805</v>
+      </c>
+      <c r="D3020" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E3020" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:5">
+      <c r="A3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3021" t="s">
+        <v>5806</v>
+      </c>
+      <c r="D3021" t="s">
+        <v>5807</v>
+      </c>
+      <c r="E3021" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:5">
+      <c r="A3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3022" t="s">
+        <v>5808</v>
+      </c>
+      <c r="D3022" t="s">
+        <v>5809</v>
+      </c>
+      <c r="E3022" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:5">
+      <c r="A3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3023" t="s">
+        <v>5810</v>
+      </c>
+      <c r="D3023" t="s">
+        <v>5811</v>
+      </c>
+      <c r="E3023" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:5">
+      <c r="A3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3024" t="s">
+        <v>5812</v>
+      </c>
+      <c r="D3024" t="s">
+        <v>5813</v>
+      </c>
+      <c r="E3024" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:5">
+      <c r="A3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3025" t="s">
+        <v>5814</v>
+      </c>
+      <c r="D3025" t="s">
+        <v>5815</v>
+      </c>
+      <c r="E3025" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:5">
+      <c r="A3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3026" t="s">
+        <v>5816</v>
+      </c>
+      <c r="D3026" t="s">
+        <v>5817</v>
+      </c>
+      <c r="E3026" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:5">
+      <c r="A3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3027" t="s">
+        <v>5818</v>
+      </c>
+      <c r="D3027" t="s">
+        <v>5819</v>
+      </c>
+      <c r="E3027" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:5">
+      <c r="A3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3028" t="s">
+        <v>5820</v>
+      </c>
+      <c r="D3028" t="s">
+        <v>5821</v>
+      </c>
+      <c r="E3028" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:5">
+      <c r="A3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3029" t="s">
+        <v>5822</v>
+      </c>
+      <c r="D3029" t="s">
+        <v>5823</v>
+      </c>
+      <c r="E3029" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:5">
+      <c r="A3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3030" t="s">
+        <v>5824</v>
+      </c>
+      <c r="D3030" t="s">
+        <v>5825</v>
+      </c>
+      <c r="E3030" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:5">
+      <c r="A3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3031" t="s">
+        <v>5826</v>
+      </c>
+      <c r="D3031" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E3031" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:5">
+      <c r="A3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3032" t="s">
+        <v>5827</v>
+      </c>
+      <c r="D3032" t="s">
+        <v>5828</v>
+      </c>
+      <c r="E3032" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:5">
+      <c r="A3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3033" t="s">
+        <v>5829</v>
+      </c>
+      <c r="D3033" t="s">
+        <v>5830</v>
+      </c>
+      <c r="E3033" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:5">
+      <c r="A3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3034" t="s">
+        <v>5831</v>
+      </c>
+      <c r="D3034" t="s">
+        <v>5832</v>
+      </c>
+      <c r="E3034" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:5">
+      <c r="A3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3035" t="s">
+        <v>5833</v>
+      </c>
+      <c r="D3035" t="s">
+        <v>4914</v>
+      </c>
+      <c r="E3035" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:5">
+      <c r="A3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3036" t="s">
+        <v>5834</v>
+      </c>
+      <c r="D3036" t="s">
+        <v>5835</v>
+      </c>
+      <c r="E3036" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:5">
+      <c r="A3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3037" t="s">
+        <v>5836</v>
+      </c>
+      <c r="D3037" t="s">
+        <v>5837</v>
+      </c>
+      <c r="E3037" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:5">
+      <c r="A3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3038" t="s">
+        <v>5838</v>
+      </c>
+      <c r="D3038" t="s">
+        <v>5839</v>
+      </c>
+      <c r="E3038" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:5">
+      <c r="A3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3039" t="s">
+        <v>5840</v>
+      </c>
+      <c r="D3039" t="s">
+        <v>5841</v>
+      </c>
+      <c r="E3039" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:5">
+      <c r="A3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3040" t="s">
+        <v>5842</v>
+      </c>
+      <c r="D3040" t="s">
+        <v>5843</v>
+      </c>
+      <c r="E3040" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:5">
+      <c r="A3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3041" t="s">
+        <v>5844</v>
+      </c>
+      <c r="D3041" t="s">
+        <v>5845</v>
+      </c>
+      <c r="E3041" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:5">
+      <c r="A3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3042" t="s">
+        <v>5846</v>
+      </c>
+      <c r="D3042" t="s">
+        <v>5847</v>
+      </c>
+      <c r="E3042" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:5">
+      <c r="A3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3043" t="s">
+        <v>5848</v>
+      </c>
+      <c r="D3043" t="s">
+        <v>5849</v>
+      </c>
+      <c r="E3043" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:5">
+      <c r="A3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3044" t="s">
+        <v>5850</v>
+      </c>
+      <c r="D3044" t="s">
+        <v>5851</v>
+      </c>
+      <c r="E3044" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:5">
+      <c r="A3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3045" t="s">
+        <v>5852</v>
+      </c>
+      <c r="D3045" t="s">
+        <v>5853</v>
+      </c>
+      <c r="E3045" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:5">
+      <c r="A3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3046" t="s">
+        <v>5854</v>
+      </c>
+      <c r="D3046" t="s">
+        <v>3124</v>
+      </c>
+      <c r="E3046" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:5">
+      <c r="A3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3047" t="s">
+        <v>5855</v>
+      </c>
+      <c r="D3047" t="s">
+        <v>5856</v>
+      </c>
+      <c r="E3047" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:5">
+      <c r="A3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3048" t="s">
+        <v>5857</v>
+      </c>
+      <c r="D3048" t="s">
+        <v>5858</v>
+      </c>
+      <c r="E3048" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:5">
+      <c r="A3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3049" t="s">
+        <v>5859</v>
+      </c>
+      <c r="D3049" t="s">
+        <v>3120</v>
+      </c>
+      <c r="E3049" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:5">
+      <c r="A3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3050" t="s">
+        <v>5860</v>
+      </c>
+      <c r="D3050" t="s">
+        <v>5861</v>
+      </c>
+      <c r="E3050" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:5">
+      <c r="A3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3051" t="s">
+        <v>5862</v>
+      </c>
+      <c r="D3051" t="s">
+        <v>5863</v>
+      </c>
+      <c r="E3051" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:5">
+      <c r="A3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3052" t="s">
+        <v>5864</v>
+      </c>
+      <c r="D3052" t="s">
+        <v>5865</v>
+      </c>
+      <c r="E3052" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:5">
+      <c r="A3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3053" t="s">
+        <v>5866</v>
+      </c>
+      <c r="D3053" t="s">
+        <v>5867</v>
+      </c>
+      <c r="E3053" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:5">
+      <c r="A3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3054" t="s">
+        <v>5868</v>
+      </c>
+      <c r="D3054" t="s">
+        <v>5869</v>
+      </c>
+      <c r="E3054" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:5">
+      <c r="A3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3055" t="s">
+        <v>5870</v>
+      </c>
+      <c r="D3055" t="s">
+        <v>5871</v>
+      </c>
+      <c r="E3055" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:5">
+      <c r="A3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3056" t="s">
+        <v>5872</v>
+      </c>
+      <c r="D3056" t="s">
+        <v>5873</v>
+      </c>
+      <c r="E3056" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:5">
+      <c r="A3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3057" t="s">
+        <v>5874</v>
+      </c>
+      <c r="D3057" t="s">
+        <v>5875</v>
+      </c>
+      <c r="E3057" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:5">
+      <c r="A3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3058" t="s">
+        <v>5876</v>
+      </c>
+      <c r="D3058" t="s">
+        <v>4213</v>
+      </c>
+      <c r="E3058" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:5">
+      <c r="A3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3059" t="s">
+        <v>5877</v>
+      </c>
+      <c r="D3059" t="s">
+        <v>5878</v>
+      </c>
+      <c r="E3059" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:5">
+      <c r="A3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3060" t="s">
+        <v>5879</v>
+      </c>
+      <c r="D3060" t="s">
+        <v>5880</v>
+      </c>
+      <c r="E3060" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:5">
+      <c r="A3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3061" t="s">
+        <v>5881</v>
+      </c>
+      <c r="D3061" t="s">
+        <v>5882</v>
+      </c>
+      <c r="E3061" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:5">
+      <c r="A3062" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3062" t="s">
+        <v>5883</v>
+      </c>
+      <c r="C3062" t="s">
+        <v>5884</v>
+      </c>
+      <c r="D3062" t="s">
+        <v>5885</v>
+      </c>
+      <c r="E3062" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/fi_FI.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/fi_FI.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6180">
   <si>
     <t>translation_group</t>
   </si>
@@ -17687,6 +17687,888 @@
                                                     Ajattele, mitä sinä kuluttaja haluaisit tietää, ja sisällytä sitten nämä ominaisuudet kuvaukseen. Vaatteet: materiaalit ja istuvuus. Ruokaa varten: ainesosat ja miten se valmistettiin. Luettelomerkit ovat ystäväsi, kun luet
                                                    -ominaisuuksia - yritä
                                                             rajoittaa kukin 5-8 sanaan.</t>
+  </si>
+  <si>
+    <t>Admin language</t>
+  </si>
+  <si>
+    <t>Järjestelmänvalvojan kieli</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>Code Editor</t>
+  </si>
+  <si>
+    <t>Koodieditori</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Blogi</t>
+  </si>
+  <si>
+    <t>titles</t>
+  </si>
+  <si>
+    <t>otsikoita</t>
+  </si>
+  <si>
+    <t>Titles 1</t>
+  </si>
+  <si>
+    <t>Otsikot 1</t>
+  </si>
+  <si>
+    <t>Titles 2</t>
+  </si>
+  <si>
+    <t>Otsikot 2</t>
+  </si>
+  <si>
+    <t>Titles 3</t>
+  </si>
+  <si>
+    <t>Otsikot 3</t>
+  </si>
+  <si>
+    <t>Titles 4</t>
+  </si>
+  <si>
+    <t>Otsikot 4</t>
+  </si>
+  <si>
+    <t>Titles 5</t>
+  </si>
+  <si>
+    <t>Otsikot 5</t>
+  </si>
+  <si>
+    <t>Titles 6</t>
+  </si>
+  <si>
+    <t>Otsikot 6</t>
+  </si>
+  <si>
+    <t>Titles 7</t>
+  </si>
+  <si>
+    <t>Otsikot 7</t>
+  </si>
+  <si>
+    <t>Titles 8</t>
+  </si>
+  <si>
+    <t>Otsikot 8</t>
+  </si>
+  <si>
+    <t>text block</t>
+  </si>
+  <si>
+    <t>tekstilohko</t>
+  </si>
+  <si>
+    <t>Text block 1</t>
+  </si>
+  <si>
+    <t>Tekstilohko 1</t>
+  </si>
+  <si>
+    <t>Text block 2</t>
+  </si>
+  <si>
+    <t>Tekstilohko 2</t>
+  </si>
+  <si>
+    <t>Text block 3</t>
+  </si>
+  <si>
+    <t>Tekstilohko 3</t>
+  </si>
+  <si>
+    <t>Text block 4</t>
+  </si>
+  <si>
+    <t>Tekstilohko 4</t>
+  </si>
+  <si>
+    <t>Text block 5</t>
+  </si>
+  <si>
+    <t>Tekstilohko 5</t>
+  </si>
+  <si>
+    <t>Text block 6</t>
+  </si>
+  <si>
+    <t>Tekstilohko 6</t>
+  </si>
+  <si>
+    <t>Text block 7</t>
+  </si>
+  <si>
+    <t>Tekstilohko 7</t>
+  </si>
+  <si>
+    <t>Text block 8</t>
+  </si>
+  <si>
+    <t>Tekstilohko 8</t>
+  </si>
+  <si>
+    <t>Text block 9</t>
+  </si>
+  <si>
+    <t>Tekstilohko 9</t>
+  </si>
+  <si>
+    <t>Text block 10</t>
+  </si>
+  <si>
+    <t>Tekstilohko 10</t>
+  </si>
+  <si>
+    <t>Text block 11</t>
+  </si>
+  <si>
+    <t>Tekstilohko 11</t>
+  </si>
+  <si>
+    <t>Text block 12</t>
+  </si>
+  <si>
+    <t>Tekstilohko 12</t>
+  </si>
+  <si>
+    <t>Text block 13</t>
+  </si>
+  <si>
+    <t>Tekstilohko 13</t>
+  </si>
+  <si>
+    <t>Text block 14</t>
+  </si>
+  <si>
+    <t>Tekstilohko 14</t>
+  </si>
+  <si>
+    <t>Text block 15</t>
+  </si>
+  <si>
+    <t>Tekstilohko 15</t>
+  </si>
+  <si>
+    <t>features</t>
+  </si>
+  <si>
+    <t>Features 1</t>
+  </si>
+  <si>
+    <t>Ominaisuudet 1</t>
+  </si>
+  <si>
+    <t>Features 2</t>
+  </si>
+  <si>
+    <t>Ominaisuudet 2</t>
+  </si>
+  <si>
+    <t>Features 3</t>
+  </si>
+  <si>
+    <t>Ominaisuudet 3</t>
+  </si>
+  <si>
+    <t>Features 4</t>
+  </si>
+  <si>
+    <t>Ominaisuudet 4</t>
+  </si>
+  <si>
+    <t>grids</t>
+  </si>
+  <si>
+    <t>ruudukot</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>valikosta</t>
+  </si>
+  <si>
+    <t>Menu - skin-1</t>
+  </si>
+  <si>
+    <t>Menu - skin-2</t>
+  </si>
+  <si>
+    <t>Menu - skin-3</t>
+  </si>
+  <si>
+    <t>Valikko - iho-3</t>
+  </si>
+  <si>
+    <t>Menu - skin-4</t>
+  </si>
+  <si>
+    <t>Menu - iho-4</t>
+  </si>
+  <si>
+    <t>Menu - skin-5</t>
+  </si>
+  <si>
+    <t>footers</t>
+  </si>
+  <si>
+    <t>alatunnisteet</t>
+  </si>
+  <si>
+    <t>Footers 1</t>
+  </si>
+  <si>
+    <t>Alatunnisteet 1</t>
+  </si>
+  <si>
+    <t>Footers 2</t>
+  </si>
+  <si>
+    <t>Alatunnisteet 2</t>
+  </si>
+  <si>
+    <t>Footers 3</t>
+  </si>
+  <si>
+    <t>Alatunnisteet 3</t>
+  </si>
+  <si>
+    <t>Footers 4</t>
+  </si>
+  <si>
+    <t>Alatunnisteet 4</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>muu</t>
+  </si>
+  <si>
+    <t>jumbotron</t>
+  </si>
+  <si>
+    <t>Jumbotron 1</t>
+  </si>
+  <si>
+    <t>pricing</t>
+  </si>
+  <si>
+    <t>hinnoittelu</t>
+  </si>
+  <si>
+    <t>Pricing 1</t>
+  </si>
+  <si>
+    <t>Hinnoittelu 1</t>
+  </si>
+  <si>
+    <t>Default layouts</t>
+  </si>
+  <si>
+    <t>Oletusasettelut</t>
+  </si>
+  <si>
+    <t>No Content Here</t>
+  </si>
+  <si>
+    <t>Ei sisältöä täällä</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Mukautetut kentät tallennetaan</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>Olemassa olevat kentät</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Valitse alla olevista olemassa olevista kentistäsi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lisää uusia kenttiä</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Lisää uusi mukautettu kenttä alla olevasta luettelosta</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>Sinun kentäsi</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Luettelo lisäämistäsi mukautetuista kentistä</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repeat vertically </t>
+  </si>
+  <si>
+    <t xml:space="preserve">toista pystysuunnassa </t>
+  </si>
+  <si>
+    <t>Font Family</t>
+  </si>
+  <si>
+    <t>Fonttiperhe</t>
+  </si>
+  <si>
+    <t>Overlay</t>
+  </si>
+  <si>
+    <t>Peittokuva</t>
+  </si>
+  <si>
+    <t>Blend mode</t>
+  </si>
+  <si>
+    <t>Sekoitustila</t>
+  </si>
+  <si>
+    <t>Container</t>
+  </si>
+  <si>
+    <t>Säiliö</t>
+  </si>
+  <si>
+    <t>Container type</t>
+  </si>
+  <si>
+    <t>Säiliön tyyppi</t>
+  </si>
+  <si>
+    <t>Animations</t>
+  </si>
+  <si>
+    <t>Animaatiot</t>
+  </si>
+  <si>
+    <t>Reloading styles</t>
+  </si>
+  <si>
+    <t>Ladataan tyylejä uudelleen</t>
+  </si>
+  <si>
+    <t>Links to</t>
+  </si>
+  <si>
+    <t>Linkkejä kohteeseen</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Esikatselu paketti</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Käyttää</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Nykyinen</t>
+  </si>
+  <si>
+    <t>Reorder</t>
+  </si>
+  <si>
+    <t>Järjestä uudelleen</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Järjestelmä</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Selaimen uudelleenohjaus</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Liittäminen</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Itsenäinen päivitysohjelma</t>
+  </si>
+  <si>
+    <t>You need license key to install this package</t>
+  </si>
+  <si>
+    <t>Tarvitset lisenssiavaimen tämän paketin asentamiseen</t>
+  </si>
+  <si>
+    <t>This package is premium and you must have a license key to install it</t>
+  </si>
+  <si>
+    <t>Tämä paketti on premium-paketti, ja sinulla on oltava lisenssiavain sen asentamiseen</t>
+  </si>
+  <si>
+    <t>You need license key</t>
+  </si>
+  <si>
+    <t>Tarvitset lisenssiavaimen</t>
+  </si>
+  <si>
+    <t>License activated</t>
+  </si>
+  <si>
+    <t>Lisenssi aktivoitu</t>
+  </si>
+  <si>
+    <t>Reloading page</t>
+  </si>
+  <si>
+    <t>Ladataan sivua uudelleen</t>
+  </si>
+  <si>
+    <t>License not activated</t>
+  </si>
+  <si>
+    <t>Lisenssiä ei ole aktivoitu</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>URL-osoite</t>
+  </si>
+  <si>
+    <t>System updates</t>
+  </si>
+  <si>
+    <t>Järjestelmäpäivitykset</t>
+  </si>
+  <si>
+    <t>Check for system updates</t>
+  </si>
+  <si>
+    <t>Tarkista järjestelmäpäivitykset</t>
+  </si>
+  <si>
+    <t>Back to list</t>
+  </si>
+  <si>
+    <t>Takaisin listalle</t>
+  </si>
+  <si>
+    <t>The category must have a name</t>
+  </si>
+  <si>
+    <t>Luokassa on oltava nimi</t>
+  </si>
+  <si>
+    <t>Is category hidden?</t>
+  </si>
+  <si>
+    <t>Onko luokka piilotettu?</t>
+  </si>
+  <si>
+    <t>If you set this to YES this category will be hidden from the website</t>
+  </si>
+  <si>
+    <t>Jos asetat asetukseksi KYLLÄ, tämä luokka piilotetaan verkkosivustolta</t>
+  </si>
+  <si>
+    <t>template-big</t>
+  </si>
+  <si>
+    <t>Mentioning</t>
+  </si>
+  <si>
+    <t>Mainitseminen</t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Ostoskorisi on tyhjä.</t>
+  </si>
+  <si>
+    <t>Results found</t>
+  </si>
+  <si>
+    <t>Tuloksia löytyi</t>
+  </si>
+  <si>
+    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
+  </si>
+  <si>
+    <t>Jos valitset valintakentästä Prosentti, se lasketaan automaattisesti tuotteen Hinnasta ja Tarjoushinnasta.</t>
+  </si>
+  <si>
+    <t>أضف منتج</t>
+  </si>
+  <si>
+    <t>validation</t>
+  </si>
+  <si>
+    <t>custom.multilanguage.title.en_US.required</t>
+  </si>
+  <si>
+    <t>values.multilanguage.title.en_US.</t>
+  </si>
+  <si>
+    <t>value.multilannguage.title.en_US.</t>
+  </si>
+  <si>
+    <t>تحرير المنتج</t>
+  </si>
+  <si>
+    <t>iuiuui</t>
+  </si>
+  <si>
+    <t>Proceed to Checkout</t>
+  </si>
+  <si>
+    <t>Siirry maksamaan</t>
+  </si>
+  <si>
+    <t>تحرير آخر</t>
+  </si>
+  <si>
+    <t>Displaying</t>
+  </si>
+  <si>
+    <t>Näytetään</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>result(s)</t>
+  </si>
+  <si>
+    <t>tulos (tulokset)</t>
+  </si>
+  <si>
+    <t>Page Title - Right Breadcrumb</t>
+  </si>
+  <si>
+    <t>Sivun otsikko - Oikea vaihemerkki</t>
+  </si>
+  <si>
+    <t>Page Title - Left Breadcrumb</t>
+  </si>
+  <si>
+    <t>Sivun otsikko - Vasen vaihemerkki</t>
+  </si>
+  <si>
+    <t>Terms of use</t>
+  </si>
+  <si>
+    <t>Delivery and returns</t>
+  </si>
+  <si>
+    <t>Toimitus ja palautukset</t>
+  </si>
+  <si>
+    <t>Shipping information</t>
+  </si>
+  <si>
+    <t>About 1</t>
+  </si>
+  <si>
+    <t>Noin 1</t>
+  </si>
+  <si>
+    <t>About 2</t>
+  </si>
+  <si>
+    <t>Noin 2</t>
+  </si>
+  <si>
+    <t>About 3</t>
+  </si>
+  <si>
+    <t>Noin 3</t>
+  </si>
+  <si>
+    <t>Home 1</t>
+  </si>
+  <si>
+    <t>koti 1</t>
+  </si>
+  <si>
+    <t>Home 2</t>
+  </si>
+  <si>
+    <t>Koti 2</t>
+  </si>
+  <si>
+    <t>You must click the apply template button to change your template</t>
+  </si>
+  <si>
+    <t>Sinun on napsautettava mallia -painiketta muuttaaksesi mallia</t>
+  </si>
+  <si>
+    <t>Search by criteria</t>
+  </si>
+  <si>
+    <t>Hae kriteerien mukaan</t>
+  </si>
+  <si>
+    <t>Order ID</t>
+  </si>
+  <si>
+    <t>tilausnumero</t>
+  </si>
+  <si>
+    <t>Date from</t>
+  </si>
+  <si>
+    <t>Päivämäärä alkaen</t>
+  </si>
+  <si>
+    <t>Set the orders from date</t>
+  </si>
+  <si>
+    <t>Aseta tilaukset päivämäärästä alkaen</t>
+  </si>
+  <si>
+    <t>Date to</t>
+  </si>
+  <si>
+    <t>Set the orders to date</t>
+  </si>
+  <si>
+    <t>Aseta tilaukset päivämäärään</t>
+  </si>
+  <si>
+    <t>Order amount from</t>
+  </si>
+  <si>
+    <t>Tilaussumma alkaen</t>
+  </si>
+  <si>
+    <t>Show the order with minimum amount</t>
+  </si>
+  <si>
+    <t>Näytä tilaus vähimmäismäärällä</t>
+  </si>
+  <si>
+    <t>Order amount to</t>
+  </si>
+  <si>
+    <t>Tilauksen määrä</t>
+  </si>
+  <si>
+    <t>Show the order with maximum amount</t>
+  </si>
+  <si>
+    <t>Näytä tilaus enimmäismäärällä</t>
+  </si>
+  <si>
+    <t>Search by products...</t>
+  </si>
+  <si>
+    <t>Hae tuotteiden mukaan...</t>
+  </si>
+  <si>
+    <t>Search by products</t>
+  </si>
+  <si>
+    <t>Hae tuotteiden mukaan</t>
+  </si>
+  <si>
+    <t>Payment Status</t>
+  </si>
+  <si>
+    <t>Maksun tilanne</t>
+  </si>
+  <si>
+    <t>Free search by phone, name, email etc...</t>
+  </si>
+  <si>
+    <t>Ilmainen haku puhelimella, nimellä, sähköpostilla jne...</t>
+  </si>
+  <si>
+    <t>Submit this criteria</t>
+  </si>
+  <si>
+    <t>Lähetä nämä kriteerit</t>
+  </si>
+  <si>
+    <t>Reset filter</t>
+  </si>
+  <si>
+    <t>Nollaa suodatin</t>
+  </si>
+  <si>
+    <t>Export all</t>
+  </si>
+  <si>
+    <t>Vie kaikki</t>
+  </si>
+  <si>
+    <t>Select sorting</t>
+  </si>
+  <si>
+    <t>Valitse lajittelu</t>
+  </si>
+  <si>
+    <t>Order date</t>
+  </si>
+  <si>
+    <t>Tilauspäivämäärä</t>
+  </si>
+  <si>
+    <t>[New &gt; Old]</t>
+  </si>
+  <si>
+    <t>[Uusi &gt; Vanha]</t>
+  </si>
+  <si>
+    <t>[Old &gt; New]</t>
+  </si>
+  <si>
+    <t>[Vanha &gt; Uusi]</t>
+  </si>
+  <si>
+    <t>[High &gt; Low]</t>
+  </si>
+  <si>
+    <t>[Korkea &gt; Matala]</t>
+  </si>
+  <si>
+    <t>[Low &gt; High]</t>
+  </si>
+  <si>
+    <t>[Matala &gt; Korkea]</t>
+  </si>
+  <si>
+    <t>Order completed</t>
+  </si>
+  <si>
+    <t>Tilaus suoritettu</t>
+  </si>
+  <si>
+    <t>translations from the multilnaguage module have been found in your database.</t>
+  </si>
+  <si>
+    <t>käännökset monikielisestä moduulista on löydetty tietokannastasi.</t>
+  </si>
+  <si>
+    <t>Warning! Changing the default language can break translations on your site.</t>
+  </si>
+  <si>
+    <t>Varoitus! Oletuskielen muuttaminen voi rikkoa käännöksiä sivustollasi.</t>
+  </si>
+  <si>
+    <t>Are you sure want to continue?</t>
+  </si>
+  <si>
+    <t>Haluatko varmasti jatkaa?</t>
+  </si>
+  <si>
+    <t>Warning! The changing default language maybe will break your site.</t>
+  </si>
+  <si>
+    <t>Varoitus! Vaihtuva oletuskieli saattaa rikkoa sivustosi.</t>
+  </si>
+  <si>
+    <t>Shipping details</t>
+  </si>
+  <si>
+    <t>Rahti tiedot</t>
+  </si>
+  <si>
+    <t>Shipping type</t>
+  </si>
+  <si>
+    <t>Toimitustyyppi</t>
+  </si>
+  <si>
+    <t>the order is not completed yet</t>
+  </si>
+  <si>
+    <t>tilaus ei ole vielä valmis</t>
+  </si>
+  <si>
+    <t>the order is completed</t>
+  </si>
+  <si>
+    <t>tilaus on valmis</t>
+  </si>
+  <si>
+    <t>Created at</t>
+  </si>
+  <si>
+    <t>Luotu klo</t>
+  </si>
+  <si>
+    <t>Updated at</t>
+  </si>
+  <si>
+    <t>Päivitetty klo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick view </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katsaus </t>
+  </si>
+  <si>
+    <t>Replace language values</t>
+  </si>
+  <si>
+    <t>Korvaa kieliarvot</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>Käännökset tuodaan maahan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Käännöksiä ei löydy tietokannasta. Haluatko tuoda käännöksiä? </t>
   </si>
 </sst>
 </file>
@@ -17710,10 +18592,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -17724,7 +18603,7 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -18025,7 +18904,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3062"/>
+  <dimension ref="A1:E3217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -70087,8 +70966,2642 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3063" spans="1:5">
+      <c r="A3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3063" t="s">
+        <v>5886</v>
+      </c>
+      <c r="D3063" t="s">
+        <v>5887</v>
+      </c>
+      <c r="E3063" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:5">
+      <c r="A3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3064" t="s">
+        <v>5888</v>
+      </c>
+      <c r="D3064" t="s">
+        <v>4483</v>
+      </c>
+      <c r="E3064" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:5">
+      <c r="A3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3065" t="s">
+        <v>5889</v>
+      </c>
+      <c r="D3065" t="s">
+        <v>5890</v>
+      </c>
+      <c r="E3065" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:5">
+      <c r="A3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3066" t="s">
+        <v>5891</v>
+      </c>
+      <c r="D3066" t="s">
+        <v>5892</v>
+      </c>
+      <c r="E3066" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:5">
+      <c r="A3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3067" t="s">
+        <v>5893</v>
+      </c>
+      <c r="D3067" t="s">
+        <v>5894</v>
+      </c>
+      <c r="E3067" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:5">
+      <c r="A3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3068" t="s">
+        <v>5895</v>
+      </c>
+      <c r="D3068" t="s">
+        <v>5896</v>
+      </c>
+      <c r="E3068" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:5">
+      <c r="A3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3069" t="s">
+        <v>5897</v>
+      </c>
+      <c r="D3069" t="s">
+        <v>5898</v>
+      </c>
+      <c r="E3069" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:5">
+      <c r="A3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3070" t="s">
+        <v>5899</v>
+      </c>
+      <c r="D3070" t="s">
+        <v>5900</v>
+      </c>
+      <c r="E3070" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:5">
+      <c r="A3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3071" t="s">
+        <v>5901</v>
+      </c>
+      <c r="D3071" t="s">
+        <v>5902</v>
+      </c>
+      <c r="E3071" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:5">
+      <c r="A3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3072" t="s">
+        <v>5903</v>
+      </c>
+      <c r="D3072" t="s">
+        <v>5904</v>
+      </c>
+      <c r="E3072" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3073" spans="1:5">
+      <c r="A3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3073" t="s">
+        <v>5905</v>
+      </c>
+      <c r="D3073" t="s">
+        <v>5906</v>
+      </c>
+      <c r="E3073" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:5">
+      <c r="A3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3074" t="s">
+        <v>5907</v>
+      </c>
+      <c r="D3074" t="s">
+        <v>5908</v>
+      </c>
+      <c r="E3074" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:5">
+      <c r="A3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3075" t="s">
+        <v>5909</v>
+      </c>
+      <c r="D3075" t="s">
+        <v>5910</v>
+      </c>
+      <c r="E3075" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:5">
+      <c r="A3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3076" t="s">
+        <v>5911</v>
+      </c>
+      <c r="D3076" t="s">
+        <v>5912</v>
+      </c>
+      <c r="E3076" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:5">
+      <c r="A3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3077" t="s">
+        <v>5913</v>
+      </c>
+      <c r="D3077" t="s">
+        <v>5914</v>
+      </c>
+      <c r="E3077" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:5">
+      <c r="A3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3078" t="s">
+        <v>5915</v>
+      </c>
+      <c r="D3078" t="s">
+        <v>5916</v>
+      </c>
+      <c r="E3078" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3079" spans="1:5">
+      <c r="A3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3079" t="s">
+        <v>5917</v>
+      </c>
+      <c r="D3079" t="s">
+        <v>5918</v>
+      </c>
+      <c r="E3079" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:5">
+      <c r="A3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3080" t="s">
+        <v>5919</v>
+      </c>
+      <c r="D3080" t="s">
+        <v>5920</v>
+      </c>
+      <c r="E3080" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:5">
+      <c r="A3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3081" t="s">
+        <v>5921</v>
+      </c>
+      <c r="D3081" t="s">
+        <v>5922</v>
+      </c>
+      <c r="E3081" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3082" spans="1:5">
+      <c r="A3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3082" t="s">
+        <v>5923</v>
+      </c>
+      <c r="D3082" t="s">
+        <v>5924</v>
+      </c>
+      <c r="E3082" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3083" spans="1:5">
+      <c r="A3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3083" t="s">
+        <v>5925</v>
+      </c>
+      <c r="D3083" t="s">
+        <v>5926</v>
+      </c>
+      <c r="E3083" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3084" spans="1:5">
+      <c r="A3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3084" t="s">
+        <v>5927</v>
+      </c>
+      <c r="D3084" t="s">
+        <v>5928</v>
+      </c>
+      <c r="E3084" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3085" spans="1:5">
+      <c r="A3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3085" t="s">
+        <v>5929</v>
+      </c>
+      <c r="D3085" t="s">
+        <v>5930</v>
+      </c>
+      <c r="E3085" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3086" spans="1:5">
+      <c r="A3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3086" t="s">
+        <v>5931</v>
+      </c>
+      <c r="D3086" t="s">
+        <v>5932</v>
+      </c>
+      <c r="E3086" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3087" spans="1:5">
+      <c r="A3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3087" t="s">
+        <v>5933</v>
+      </c>
+      <c r="D3087" t="s">
+        <v>5934</v>
+      </c>
+      <c r="E3087" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3088" spans="1:5">
+      <c r="A3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3088" t="s">
+        <v>5935</v>
+      </c>
+      <c r="D3088" t="s">
+        <v>5936</v>
+      </c>
+      <c r="E3088" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:5">
+      <c r="A3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3089" t="s">
+        <v>5937</v>
+      </c>
+      <c r="D3089" t="s">
+        <v>5938</v>
+      </c>
+      <c r="E3089" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:5">
+      <c r="A3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3090" t="s">
+        <v>5939</v>
+      </c>
+      <c r="D3090" t="s">
+        <v>5940</v>
+      </c>
+      <c r="E3090" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:5">
+      <c r="A3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3091" t="s">
+        <v>5941</v>
+      </c>
+      <c r="D3091" t="s">
+        <v>5942</v>
+      </c>
+      <c r="E3091" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:5">
+      <c r="A3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3092" t="s">
+        <v>5943</v>
+      </c>
+      <c r="D3092" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E3092" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:5">
+      <c r="A3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3093" t="s">
+        <v>5944</v>
+      </c>
+      <c r="D3093" t="s">
+        <v>5945</v>
+      </c>
+      <c r="E3093" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:5">
+      <c r="A3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3094" t="s">
+        <v>5946</v>
+      </c>
+      <c r="D3094" t="s">
+        <v>5947</v>
+      </c>
+      <c r="E3094" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:5">
+      <c r="A3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3095" t="s">
+        <v>5948</v>
+      </c>
+      <c r="D3095" t="s">
+        <v>5949</v>
+      </c>
+      <c r="E3095" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:5">
+      <c r="A3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3096" t="s">
+        <v>5950</v>
+      </c>
+      <c r="D3096" t="s">
+        <v>5951</v>
+      </c>
+      <c r="E3096" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:5">
+      <c r="A3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3097" t="s">
+        <v>5952</v>
+      </c>
+      <c r="D3097" t="s">
+        <v>5953</v>
+      </c>
+      <c r="E3097" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:5">
+      <c r="A3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3098" t="s">
+        <v>5954</v>
+      </c>
+      <c r="D3098" t="s">
+        <v>5955</v>
+      </c>
+      <c r="E3098" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:5">
+      <c r="A3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3099" t="s">
+        <v>5956</v>
+      </c>
+      <c r="D3099" t="s">
+        <v>5956</v>
+      </c>
+      <c r="E3099" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:5">
+      <c r="A3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3100" t="s">
+        <v>5957</v>
+      </c>
+      <c r="D3100" t="s">
+        <v>5957</v>
+      </c>
+      <c r="E3100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:5">
+      <c r="A3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3101" t="s">
+        <v>5958</v>
+      </c>
+      <c r="D3101" t="s">
+        <v>5959</v>
+      </c>
+      <c r="E3101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:5">
+      <c r="A3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3102" t="s">
+        <v>5960</v>
+      </c>
+      <c r="D3102" t="s">
+        <v>5961</v>
+      </c>
+      <c r="E3102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3103" spans="1:5">
+      <c r="A3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3103" t="s">
+        <v>5962</v>
+      </c>
+      <c r="D3103" t="s">
+        <v>5962</v>
+      </c>
+      <c r="E3103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:5">
+      <c r="A3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3104" t="s">
+        <v>5963</v>
+      </c>
+      <c r="D3104" t="s">
+        <v>5964</v>
+      </c>
+      <c r="E3104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3105" spans="1:5">
+      <c r="A3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3105" t="s">
+        <v>5965</v>
+      </c>
+      <c r="D3105" t="s">
+        <v>5966</v>
+      </c>
+      <c r="E3105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3106" spans="1:5">
+      <c r="A3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3106" t="s">
+        <v>5967</v>
+      </c>
+      <c r="D3106" t="s">
+        <v>5968</v>
+      </c>
+      <c r="E3106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3107" spans="1:5">
+      <c r="A3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3107" t="s">
+        <v>5969</v>
+      </c>
+      <c r="D3107" t="s">
+        <v>5970</v>
+      </c>
+      <c r="E3107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3108" spans="1:5">
+      <c r="A3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3108" t="s">
+        <v>5971</v>
+      </c>
+      <c r="D3108" t="s">
+        <v>5972</v>
+      </c>
+      <c r="E3108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3109" spans="1:5">
+      <c r="A3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3109" t="s">
+        <v>5973</v>
+      </c>
+      <c r="D3109" t="s">
+        <v>5974</v>
+      </c>
+      <c r="E3109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3110" spans="1:5">
+      <c r="A3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3110">
+        <v>404</v>
+      </c>
+      <c r="D3110">
+        <v>404</v>
+      </c>
+      <c r="E3110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:5">
+      <c r="A3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3111" t="s">
+        <v>5975</v>
+      </c>
+      <c r="D3111" t="s">
+        <v>5975</v>
+      </c>
+      <c r="E3111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:5">
+      <c r="A3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3112" t="s">
+        <v>5976</v>
+      </c>
+      <c r="D3112" t="s">
+        <v>5976</v>
+      </c>
+      <c r="E3112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:5">
+      <c r="A3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3113" t="s">
+        <v>5977</v>
+      </c>
+      <c r="D3113" t="s">
+        <v>5978</v>
+      </c>
+      <c r="E3113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:5">
+      <c r="A3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3114" t="s">
+        <v>5979</v>
+      </c>
+      <c r="D3114" t="s">
+        <v>5980</v>
+      </c>
+      <c r="E3114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:5">
+      <c r="A3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3115" t="s">
+        <v>5981</v>
+      </c>
+      <c r="D3115" t="s">
+        <v>5982</v>
+      </c>
+      <c r="E3115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:5">
+      <c r="A3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3116" t="s">
+        <v>5983</v>
+      </c>
+      <c r="D3116" t="s">
+        <v>5984</v>
+      </c>
+      <c r="E3116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:5">
+      <c r="A3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3117" t="s">
+        <v>5985</v>
+      </c>
+      <c r="D3117" t="s">
+        <v>5986</v>
+      </c>
+      <c r="E3117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:5">
+      <c r="A3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3118" t="s">
+        <v>5987</v>
+      </c>
+      <c r="D3118" t="s">
+        <v>5988</v>
+      </c>
+      <c r="E3118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:5">
+      <c r="A3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3119" t="s">
+        <v>5989</v>
+      </c>
+      <c r="D3119" t="s">
+        <v>5990</v>
+      </c>
+      <c r="E3119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:5">
+      <c r="A3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3120" t="s">
+        <v>5991</v>
+      </c>
+      <c r="D3120" t="s">
+        <v>5992</v>
+      </c>
+      <c r="E3120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:5">
+      <c r="A3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3121" t="s">
+        <v>5993</v>
+      </c>
+      <c r="D3121" t="s">
+        <v>5994</v>
+      </c>
+      <c r="E3121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:5">
+      <c r="A3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3122" t="s">
+        <v>5995</v>
+      </c>
+      <c r="D3122" t="s">
+        <v>5996</v>
+      </c>
+      <c r="E3122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:5">
+      <c r="A3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3123" t="s">
+        <v>5997</v>
+      </c>
+      <c r="D3123" t="s">
+        <v>5998</v>
+      </c>
+      <c r="E3123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:5">
+      <c r="A3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3124" t="s">
+        <v>5999</v>
+      </c>
+      <c r="D3124" t="s">
+        <v>6000</v>
+      </c>
+      <c r="E3124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:5">
+      <c r="A3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3125" t="s">
+        <v>6001</v>
+      </c>
+      <c r="D3125" t="s">
+        <v>6002</v>
+      </c>
+      <c r="E3125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:5">
+      <c r="A3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3126" t="s">
+        <v>6003</v>
+      </c>
+      <c r="D3126" t="s">
+        <v>6004</v>
+      </c>
+      <c r="E3126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:5">
+      <c r="A3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3127" t="s">
+        <v>6005</v>
+      </c>
+      <c r="D3127" t="s">
+        <v>6006</v>
+      </c>
+      <c r="E3127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:5">
+      <c r="A3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3128" t="s">
+        <v>6007</v>
+      </c>
+      <c r="D3128" t="s">
+        <v>6008</v>
+      </c>
+      <c r="E3128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:5">
+      <c r="A3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3129" t="s">
+        <v>6009</v>
+      </c>
+      <c r="D3129" t="s">
+        <v>6010</v>
+      </c>
+      <c r="E3129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:5">
+      <c r="A3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3130" t="s">
+        <v>6011</v>
+      </c>
+      <c r="D3130" t="s">
+        <v>6012</v>
+      </c>
+      <c r="E3130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:5">
+      <c r="A3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3131" t="s">
+        <v>6013</v>
+      </c>
+      <c r="D3131" t="s">
+        <v>6014</v>
+      </c>
+      <c r="E3131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:5">
+      <c r="A3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3132" t="s">
+        <v>6015</v>
+      </c>
+      <c r="D3132" t="s">
+        <v>6016</v>
+      </c>
+      <c r="E3132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:5">
+      <c r="A3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3133" t="s">
+        <v>6017</v>
+      </c>
+      <c r="D3133" t="s">
+        <v>6018</v>
+      </c>
+      <c r="E3133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:5">
+      <c r="A3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3134" t="s">
+        <v>6019</v>
+      </c>
+      <c r="D3134" t="s">
+        <v>6019</v>
+      </c>
+      <c r="E3134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:5">
+      <c r="A3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3135" t="s">
+        <v>6020</v>
+      </c>
+      <c r="D3135" t="s">
+        <v>6021</v>
+      </c>
+      <c r="E3135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:5">
+      <c r="A3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3136" t="s">
+        <v>6022</v>
+      </c>
+      <c r="D3136" t="s">
+        <v>6023</v>
+      </c>
+      <c r="E3136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:5">
+      <c r="A3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3137" t="s">
+        <v>6024</v>
+      </c>
+      <c r="D3137" t="s">
+        <v>6025</v>
+      </c>
+      <c r="E3137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:5">
+      <c r="A3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3138" t="s">
+        <v>6026</v>
+      </c>
+      <c r="D3138" t="s">
+        <v>6027</v>
+      </c>
+      <c r="E3138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:5">
+      <c r="A3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3139" t="s">
+        <v>6028</v>
+      </c>
+      <c r="D3139" t="s">
+        <v>6029</v>
+      </c>
+      <c r="E3139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:5">
+      <c r="A3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3140" t="s">
+        <v>6030</v>
+      </c>
+      <c r="D3140" t="s">
+        <v>6031</v>
+      </c>
+      <c r="E3140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:5">
+      <c r="A3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3141" t="s">
+        <v>6032</v>
+      </c>
+      <c r="D3141" t="s">
+        <v>6033</v>
+      </c>
+      <c r="E3141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:5">
+      <c r="A3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3142" t="s">
+        <v>6034</v>
+      </c>
+      <c r="D3142" t="s">
+        <v>6035</v>
+      </c>
+      <c r="E3142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:5">
+      <c r="A3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3143" t="s">
+        <v>6036</v>
+      </c>
+      <c r="D3143" t="s">
+        <v>6037</v>
+      </c>
+      <c r="E3143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:5">
+      <c r="A3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3144" t="s">
+        <v>6038</v>
+      </c>
+      <c r="D3144" t="s">
+        <v>6039</v>
+      </c>
+      <c r="E3144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:5">
+      <c r="A3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3145" t="s">
+        <v>6040</v>
+      </c>
+      <c r="D3145" t="s">
+        <v>6041</v>
+      </c>
+      <c r="E3145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3146" spans="1:5">
+      <c r="A3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3146" t="s">
+        <v>6042</v>
+      </c>
+      <c r="D3146" t="s">
+        <v>6043</v>
+      </c>
+      <c r="E3146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:5">
+      <c r="A3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3147" t="s">
+        <v>6044</v>
+      </c>
+      <c r="D3147" t="s">
+        <v>6045</v>
+      </c>
+      <c r="E3147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:5">
+      <c r="A3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3148" t="s">
+        <v>6046</v>
+      </c>
+      <c r="D3148" t="s">
+        <v>6047</v>
+      </c>
+      <c r="E3148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:5">
+      <c r="A3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3149" t="s">
+        <v>6048</v>
+      </c>
+      <c r="D3149" t="s">
+        <v>6049</v>
+      </c>
+      <c r="E3149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3150" spans="1:5">
+      <c r="A3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3150" t="s">
+        <v>6050</v>
+      </c>
+      <c r="D3150" t="s">
+        <v>6051</v>
+      </c>
+      <c r="E3150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:5">
+      <c r="A3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3151" t="s">
+        <v>6052</v>
+      </c>
+      <c r="D3151" t="s">
+        <v>6053</v>
+      </c>
+      <c r="E3151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:5">
+      <c r="A3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3152" t="s">
+        <v>6054</v>
+      </c>
+      <c r="D3152" t="s">
+        <v>6055</v>
+      </c>
+      <c r="E3152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3153" spans="1:5">
+      <c r="A3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3153" t="s">
+        <v>6056</v>
+      </c>
+      <c r="D3153" t="s">
+        <v>6057</v>
+      </c>
+      <c r="E3153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3154" spans="1:5">
+      <c r="A3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3154" t="s">
+        <v>6058</v>
+      </c>
+      <c r="D3154" t="s">
+        <v>6059</v>
+      </c>
+      <c r="E3154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:5">
+      <c r="A3155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3155" t="s">
+        <v>6060</v>
+      </c>
+      <c r="C3155" t="s">
+        <v>6061</v>
+      </c>
+      <c r="D3155" t="s">
+        <v>6062</v>
+      </c>
+      <c r="E3155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3156" spans="1:5">
+      <c r="A3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3156" t="s">
+        <v>6063</v>
+      </c>
+      <c r="D3156" t="s">
+        <v>6064</v>
+      </c>
+      <c r="E3156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3157" spans="1:5">
+      <c r="A3157" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3157" t="s">
+        <v>5883</v>
+      </c>
+      <c r="C3157" t="s">
+        <v>6065</v>
+      </c>
+      <c r="D3157" t="s">
+        <v>6066</v>
+      </c>
+      <c r="E3157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3158" spans="1:5">
+      <c r="A3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3158" t="s">
+        <v>6067</v>
+      </c>
+      <c r="D3158" t="s">
+        <v>6068</v>
+      </c>
+      <c r="E3158" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3159" spans="1:5">
+      <c r="A3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3159" t="s">
+        <v>6069</v>
+      </c>
+      <c r="D3159" t="s">
+        <v>6069</v>
+      </c>
+      <c r="E3159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3160" spans="1:5">
+      <c r="A3160" t="s">
+        <v>6070</v>
+      </c>
+      <c r="B3160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3160" t="s">
+        <v>6071</v>
+      </c>
+      <c r="D3160" t="s">
+        <v>6071</v>
+      </c>
+      <c r="E3160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3161" spans="1:5">
+      <c r="A3161" t="s">
+        <v>6070</v>
+      </c>
+      <c r="B3161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3161" t="s">
+        <v>6072</v>
+      </c>
+      <c r="D3161" t="s">
+        <v>6073</v>
+      </c>
+      <c r="E3161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3162" spans="1:5">
+      <c r="A3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3162" t="s">
+        <v>6074</v>
+      </c>
+      <c r="D3162" t="s">
+        <v>6074</v>
+      </c>
+      <c r="E3162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3163" spans="1:5">
+      <c r="A3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3163" t="s">
+        <v>6075</v>
+      </c>
+      <c r="D3163" t="s">
+        <v>6075</v>
+      </c>
+      <c r="E3163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3164" spans="1:5">
+      <c r="A3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3164" t="s">
+        <v>6076</v>
+      </c>
+      <c r="D3164" t="s">
+        <v>6077</v>
+      </c>
+      <c r="E3164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3165" spans="1:5">
+      <c r="A3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3165" t="s">
+        <v>6078</v>
+      </c>
+      <c r="D3165" t="s">
+        <v>6078</v>
+      </c>
+      <c r="E3165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3166" spans="1:5">
+      <c r="A3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3166" t="s">
+        <v>6079</v>
+      </c>
+      <c r="D3166" t="s">
+        <v>6080</v>
+      </c>
+      <c r="E3166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3167" spans="1:5">
+      <c r="A3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3167" t="s">
+        <v>6081</v>
+      </c>
+      <c r="D3167" t="s">
+        <v>6082</v>
+      </c>
+      <c r="E3167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3168" spans="1:5">
+      <c r="A3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3168" t="s">
+        <v>6083</v>
+      </c>
+      <c r="D3168" t="s">
+        <v>6084</v>
+      </c>
+      <c r="E3168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3169" spans="1:5">
+      <c r="A3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3169" t="s">
+        <v>6085</v>
+      </c>
+      <c r="D3169" t="s">
+        <v>6086</v>
+      </c>
+      <c r="E3169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3170" spans="1:5">
+      <c r="A3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3170" t="s">
+        <v>6087</v>
+      </c>
+      <c r="D3170" t="s">
+        <v>6088</v>
+      </c>
+      <c r="E3170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3171" spans="1:5">
+      <c r="A3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3171" t="s">
+        <v>6089</v>
+      </c>
+      <c r="D3171" t="s">
+        <v>3172</v>
+      </c>
+      <c r="E3171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3172" spans="1:5">
+      <c r="A3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3172" t="s">
+        <v>6090</v>
+      </c>
+      <c r="D3172" t="s">
+        <v>6091</v>
+      </c>
+      <c r="E3172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3173" spans="1:5">
+      <c r="A3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3173" t="s">
+        <v>6092</v>
+      </c>
+      <c r="D3173" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E3173" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3174" spans="1:5">
+      <c r="A3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3174" t="s">
+        <v>6093</v>
+      </c>
+      <c r="D3174" t="s">
+        <v>6094</v>
+      </c>
+      <c r="E3174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3175" spans="1:5">
+      <c r="A3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3175" t="s">
+        <v>6095</v>
+      </c>
+      <c r="D3175" t="s">
+        <v>6096</v>
+      </c>
+      <c r="E3175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3176" spans="1:5">
+      <c r="A3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3176" t="s">
+        <v>6097</v>
+      </c>
+      <c r="D3176" t="s">
+        <v>6098</v>
+      </c>
+      <c r="E3176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3177" spans="1:5">
+      <c r="A3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3177" t="s">
+        <v>6099</v>
+      </c>
+      <c r="D3177" t="s">
+        <v>6100</v>
+      </c>
+      <c r="E3177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3178" spans="1:5">
+      <c r="A3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3178" t="s">
+        <v>6101</v>
+      </c>
+      <c r="D3178" t="s">
+        <v>6102</v>
+      </c>
+      <c r="E3178" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3179" spans="1:5">
+      <c r="A3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3179" t="s">
+        <v>6103</v>
+      </c>
+      <c r="D3179" t="s">
+        <v>6104</v>
+      </c>
+      <c r="E3179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3180" spans="1:5">
+      <c r="A3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3180" t="s">
+        <v>6105</v>
+      </c>
+      <c r="D3180" t="s">
+        <v>6106</v>
+      </c>
+      <c r="E3180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3181" spans="1:5">
+      <c r="A3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3181" t="s">
+        <v>6107</v>
+      </c>
+      <c r="D3181" t="s">
+        <v>6108</v>
+      </c>
+      <c r="E3181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3182" spans="1:5">
+      <c r="A3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3182" t="s">
+        <v>6109</v>
+      </c>
+      <c r="D3182" t="s">
+        <v>6110</v>
+      </c>
+      <c r="E3182" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3183" spans="1:5">
+      <c r="A3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3183" t="s">
+        <v>6111</v>
+      </c>
+      <c r="D3183" t="s">
+        <v>6112</v>
+      </c>
+      <c r="E3183" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3184" spans="1:5">
+      <c r="A3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3184" t="s">
+        <v>6113</v>
+      </c>
+      <c r="D3184" t="s">
+        <v>911</v>
+      </c>
+      <c r="E3184" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3185" spans="1:5">
+      <c r="A3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3185" t="s">
+        <v>6114</v>
+      </c>
+      <c r="D3185" t="s">
+        <v>6115</v>
+      </c>
+      <c r="E3185" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3186" spans="1:5">
+      <c r="A3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3186" t="s">
+        <v>6116</v>
+      </c>
+      <c r="D3186" t="s">
+        <v>6117</v>
+      </c>
+      <c r="E3186" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3187" spans="1:5">
+      <c r="A3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3187" t="s">
+        <v>6118</v>
+      </c>
+      <c r="D3187" t="s">
+        <v>6119</v>
+      </c>
+      <c r="E3187" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3188" spans="1:5">
+      <c r="A3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3188" t="s">
+        <v>6120</v>
+      </c>
+      <c r="D3188" t="s">
+        <v>6121</v>
+      </c>
+      <c r="E3188" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3189" spans="1:5">
+      <c r="A3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3189" t="s">
+        <v>6122</v>
+      </c>
+      <c r="D3189" t="s">
+        <v>6123</v>
+      </c>
+      <c r="E3189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3190" spans="1:5">
+      <c r="A3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3190" t="s">
+        <v>6124</v>
+      </c>
+      <c r="D3190" t="s">
+        <v>6125</v>
+      </c>
+      <c r="E3190" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3191" spans="1:5">
+      <c r="A3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3191" t="s">
+        <v>6126</v>
+      </c>
+      <c r="D3191" t="s">
+        <v>6127</v>
+      </c>
+      <c r="E3191" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3192" spans="1:5">
+      <c r="A3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3192" t="s">
+        <v>6128</v>
+      </c>
+      <c r="D3192" t="s">
+        <v>6129</v>
+      </c>
+      <c r="E3192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3193" spans="1:5">
+      <c r="A3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3193" t="s">
+        <v>6130</v>
+      </c>
+      <c r="D3193" t="s">
+        <v>6131</v>
+      </c>
+      <c r="E3193" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3194" spans="1:5">
+      <c r="A3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3194" t="s">
+        <v>6132</v>
+      </c>
+      <c r="D3194" t="s">
+        <v>6133</v>
+      </c>
+      <c r="E3194" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3195" spans="1:5">
+      <c r="A3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3195" t="s">
+        <v>6134</v>
+      </c>
+      <c r="D3195" t="s">
+        <v>6135</v>
+      </c>
+      <c r="E3195" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3196" spans="1:5">
+      <c r="A3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3196" t="s">
+        <v>6136</v>
+      </c>
+      <c r="D3196" t="s">
+        <v>6137</v>
+      </c>
+      <c r="E3196" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3197" spans="1:5">
+      <c r="A3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3197" t="s">
+        <v>6138</v>
+      </c>
+      <c r="D3197" t="s">
+        <v>6139</v>
+      </c>
+      <c r="E3197" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3198" spans="1:5">
+      <c r="A3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3198" t="s">
+        <v>6140</v>
+      </c>
+      <c r="D3198" t="s">
+        <v>6141</v>
+      </c>
+      <c r="E3198" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3199" spans="1:5">
+      <c r="A3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3199" t="s">
+        <v>6142</v>
+      </c>
+      <c r="D3199" t="s">
+        <v>6143</v>
+      </c>
+      <c r="E3199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3200" spans="1:5">
+      <c r="A3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3200" t="s">
+        <v>6144</v>
+      </c>
+      <c r="D3200" t="s">
+        <v>6145</v>
+      </c>
+      <c r="E3200" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3201" spans="1:5">
+      <c r="A3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3201" t="s">
+        <v>6146</v>
+      </c>
+      <c r="D3201" t="s">
+        <v>6147</v>
+      </c>
+      <c r="E3201" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3202" spans="1:5">
+      <c r="A3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3202" t="s">
+        <v>6148</v>
+      </c>
+      <c r="D3202" t="s">
+        <v>6149</v>
+      </c>
+      <c r="E3202" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3203" spans="1:5">
+      <c r="A3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3203" t="s">
+        <v>6150</v>
+      </c>
+      <c r="D3203" t="s">
+        <v>6151</v>
+      </c>
+      <c r="E3203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3204" spans="1:5">
+      <c r="A3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3204" t="s">
+        <v>6152</v>
+      </c>
+      <c r="D3204" t="s">
+        <v>6153</v>
+      </c>
+      <c r="E3204" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3205" spans="1:5">
+      <c r="A3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3205" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D3205" t="s">
+        <v>6155</v>
+      </c>
+      <c r="E3205" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3206" spans="1:5">
+      <c r="A3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3206" t="s">
+        <v>6156</v>
+      </c>
+      <c r="D3206" t="s">
+        <v>6157</v>
+      </c>
+      <c r="E3206" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3207" spans="1:5">
+      <c r="A3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3207" t="s">
+        <v>6158</v>
+      </c>
+      <c r="D3207" t="s">
+        <v>6159</v>
+      </c>
+      <c r="E3207" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3208" spans="1:5">
+      <c r="A3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3208" t="s">
+        <v>6160</v>
+      </c>
+      <c r="D3208" t="s">
+        <v>6161</v>
+      </c>
+      <c r="E3208" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3209" spans="1:5">
+      <c r="A3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3209" t="s">
+        <v>6162</v>
+      </c>
+      <c r="D3209" t="s">
+        <v>6163</v>
+      </c>
+      <c r="E3209" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3210" spans="1:5">
+      <c r="A3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3210" t="s">
+        <v>6164</v>
+      </c>
+      <c r="D3210" t="s">
+        <v>6165</v>
+      </c>
+      <c r="E3210" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3211" spans="1:5">
+      <c r="A3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3211" t="s">
+        <v>6166</v>
+      </c>
+      <c r="D3211" t="s">
+        <v>6167</v>
+      </c>
+      <c r="E3211" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3212" spans="1:5">
+      <c r="A3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3212" t="s">
+        <v>6168</v>
+      </c>
+      <c r="D3212" t="s">
+        <v>6169</v>
+      </c>
+      <c r="E3212" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3213" spans="1:5">
+      <c r="A3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3213" t="s">
+        <v>6170</v>
+      </c>
+      <c r="D3213" t="s">
+        <v>6171</v>
+      </c>
+      <c r="E3213" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3214" spans="1:5">
+      <c r="A3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3214" t="s">
+        <v>6172</v>
+      </c>
+      <c r="D3214" t="s">
+        <v>6173</v>
+      </c>
+      <c r="E3214" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3215" spans="1:5">
+      <c r="A3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3215" t="s">
+        <v>6174</v>
+      </c>
+      <c r="D3215" t="s">
+        <v>6175</v>
+      </c>
+      <c r="E3215" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3216" spans="1:5">
+      <c r="A3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3216" t="s">
+        <v>6176</v>
+      </c>
+      <c r="D3216" t="s">
+        <v>6177</v>
+      </c>
+      <c r="E3216" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3217" spans="1:5">
+      <c r="A3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3217" t="s">
+        <v>6178</v>
+      </c>
+      <c r="D3217" t="s">
+        <v>6179</v>
+      </c>
+      <c r="E3217" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
@@ -70100,5 +73613,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/fi_FI.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/fi_FI.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5990">
   <si>
     <t>translation_group</t>
   </si>
@@ -10172,7 +10172,7 @@
     <t>Fill in the fields for maximum results when finding your website in search engines.</t>
   </si>
   <si>
-    <t>Täytä kentät, niin saat parhaan tuloksen, kun löydät verkkosivustosi hakukoneista.</t>
+    <t>Täytä kentät saadaksesi parhaat tulokset, kun löydät verkkosivustosi hakukoneista.</t>
   </si>
   <si>
     <t>This is very important for search engines.</t>
@@ -17109,7 +17109,7 @@
     <t>Use Microweber to build your website, online shop or blog.</t>
   </si>
   <si>
-    <t>Käytä Microweberiä verkkosivustosi, verkkokaupasi tai blogisi rakentamiseen.</t>
+    <t>Käytä Microweberiä verkkosivustosi, verkkokaupan tai blogisi rakentamiseen.</t>
   </si>
   <si>
     <t>Create and edit content, sell online, manage orders and clients.</t>
@@ -17127,9 +17127,6 @@
     <t>Abandoned cart's</t>
   </si>
   <si>
-    <t>Hylätyt korit</t>
-  </si>
-  <si>
     <t>You are using this template.</t>
   </si>
   <si>
@@ -17151,19 +17148,19 @@
     <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
   </si>
   <si>
-    <t>Jos sallit useita malleja, pystyt käyttämään erilaisia malleja, kun luot uusia sivuja.</t>
+    <t>Jos sallit useita malleja, voit käyttää erilaisia malleja, kun luot uusia sivuja.</t>
   </si>
   <si>
     <t>System e-mail website settings</t>
   </si>
   <si>
-    <t>Järjestelmän sähköpostisivuston asetukset</t>
+    <t>Järjestelmän sähköpostin verkkosivuston asetukset</t>
   </si>
   <si>
     <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
   </si>
   <si>
-    <t>Toimita uuteen rekisteröintiin, salasanan palauttamiseen ja muihin järjestelmän toimintoihin liittyviä viestejä.</t>
+    <t>Toimita uuteen rekisteröintiin, salasanan nollauksiin ja muihin järjestelmän toimintoihin liittyviä viestejä.</t>
   </si>
   <si>
     <t>From e-mail address</t>
@@ -17181,7 +17178,7 @@
     <t>General e-mail provider settings</t>
   </si>
   <si>
-    <t>Yleiset sähköpostipalveluntarjoajan asetukset</t>
+    <t>Yleiset sähköpostipalvelun asetukset</t>
   </si>
   <si>
     <t>Set up your email provider.</t>
@@ -17193,7 +17190,7 @@
     <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
   </si>
   <si>
-    <t>Yleinen sähköpostin tarjoaja toimittaa kaikki verkkosivustoon liittyvät viestit. Sisältää järjestelmäviestit ja yhteydenottolomakeviestit.</t>
+    <t>Yleinen sähköpostipalveluntarjoaja toimittaa kaikki sivustoon liittyvät viestit. Sisältää järjestelmäviestit ja yhteydenottolomakkeen viestit.</t>
   </si>
   <si>
     <t>Website Logo</t>
@@ -17211,7 +17208,7 @@
     <t>Upload logo</t>
   </si>
   <si>
-    <t>Lähetä logo</t>
+    <t>Lataa logo</t>
   </si>
   <si>
     <t>Website Favicon</t>
@@ -17223,7 +17220,7 @@
     <t>Changing default language..</t>
   </si>
   <si>
-    <t>Oletuskielen vaihtaminen ..</t>
+    <t>Vaihdetaan oletuskieltä...</t>
   </si>
   <si>
     <t>Clear cache..</t>
@@ -17241,31 +17238,31 @@
     <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
   </si>
   <si>
-    <t>Käyttäjät voivat rekisteröityä väliaikaisilla sähköpostiviesteillä, kuten - Mailinator, MailDrop, Guerrilla ... s</t>
+    <t>Käyttäjät voivat rekisteröityä väliaikaisilla sähköpostiviesteillä, kuten - Mailinator, MailDrop, Guerrilla...s</t>
   </si>
   <si>
     <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
   </si>
   <si>
-    <t>Rekisteröityneet käyttäjät voivat saada automaattisesti automaattisen sähköpostin sinulta. Katso asetukset ja lähetä viestejä.</t>
+    <t>Rekisteröityneet käyttäjät voivat saada sinulta automaattisesti automaattisen sähköpostin. Katso asetukset ja lähetä viestisi.</t>
   </si>
   <si>
     <t>Send email on new user registration to admin users</t>
   </si>
   <si>
-    <t>Lähetä sähköposti uuden käyttäjän rekisteröinnistä järjestelmänvalvojan käyttäjille</t>
+    <t>Lähetä sähköpostia uuden käyttäjän rekisteröinnistä järjestelmänvalvojakäyttäjille</t>
   </si>
   <si>
     <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
   </si>
   <si>
-    <t>Haluatko, että järjestelmänvalvojat saavat sähköpostin, kun uusi käyttäjä on rekisteröity?</t>
+    <t>Haluatko, että ylläpitäjät saavat sähköpostin, kun uusi käyttäjä on rekisteröitynyt?</t>
   </si>
   <si>
     <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
   </si>
   <si>
-    <t>Microweber on ilmainen avoimen lähdekoodin vedä ja pudota -sivustojen rakennustyökalu ja CMS. Se on MIT-lisenssillä ja käytämme Laravel PHP -kehystä</t>
+    <t>Microweber on ilmainen avoimen lähdekoodin vedä ja pudota -sivustojen rakentaja ja sisällönhallintajärjestelmä. Se on MIT-lisenssillä ja käytämme Laravel PHP -kehystä</t>
   </si>
   <si>
     <t>A Slider</t>
@@ -17292,19 +17289,19 @@
     <t>You don't have system e-mail and smtp setup.</t>
   </si>
   <si>
-    <t>Sinulla ei ole järjestelmän sähköposti- ja smtp-asetuksia.</t>
+    <t>Sinulla ei ole järjestelmäsähköposti- ja smtp-asetuksia.</t>
   </si>
   <si>
     <t>Setup your system settings here.</t>
   </si>
   <si>
-    <t>Määritä järjestelmäasetuksesi täällä.</t>
+    <t>Määritä järjestelmäasetukset täällä.</t>
   </si>
   <si>
     <t>Global contact form settings</t>
   </si>
   <si>
-    <t>Yleisen yhteydenottolomakkeen asetukset</t>
+    <t>Yleiset yhteydenottolomakkeen asetukset</t>
   </si>
   <si>
     <t>E-mail sending options</t>
@@ -17316,7 +17313,7 @@
     <t>Global sender</t>
   </si>
   <si>
-    <t>Yleinen lähettäjä</t>
+    <t>Maailmanlaajuinen lähettäjä</t>
   </si>
   <si>
     <t>Use custom sender settings</t>
@@ -17328,13 +17325,13 @@
     <t>Use custom sender settings for the global contact forms.</t>
   </si>
   <si>
-    <t>Käytä mukautettuja lähettäjän asetuksia yleisiin yhteydenottolomakkeisiin.</t>
+    <t>Käytä mukautettuja lähettäjän asetuksia yleisissä yhteydenottolomakkeissa.</t>
   </si>
   <si>
     <t>By default we will use website system e-mail settings.</t>
   </si>
   <si>
-    <t>Oletuksena käytämme verkkosivustojärjestelmän sähköpostiasetuksia.</t>
+    <t>Käytämme oletusarvoisesti verkkosivuston järjestelmän sähköpostiasetuksia.</t>
   </si>
   <si>
     <t>You can change the system e-mail settings here.</t>
@@ -17352,7 +17349,7 @@
     <t>Send contact forms data to global receivers when is submited</t>
   </si>
   <si>
-    <t>Lähetä yhteystietolomakkeiden tiedot globaaleille vastaanottimille, kun ne lähetetään</t>
+    <t>Lähetä yhteydenottolomakkeiden tiedot maailmanlaajuisille vastaanottajille, kun ne on lähetetty</t>
   </si>
   <si>
     <t>To e-mail addresses</t>
@@ -17364,13 +17361,13 @@
     <t>E-mail address of the receivers seperated with coma.</t>
   </si>
   <si>
-    <t>Koomalla erotettujen vastaanottimien sähköpostiosoite.</t>
+    <t>Vastaanottimien sähköpostiosoite erotettu koomalla.</t>
   </si>
   <si>
     <t>Contact your hosting provider to enable PHP SOAP extension.</t>
   </si>
   <si>
-    <t>Ota PHP SOAP -laajennus käyttöön ottamalla yhteyttä palveluntarjoajaasi.</t>
+    <t>Ota yhteyttä isännöintipalveluntarjoajaasi ottaaksesi PHP SOAP -laajennuksen käyttöön.</t>
   </si>
   <si>
     <t>Elements</t>
@@ -17409,7 +17406,7 @@
     <t>ProductsV2</t>
   </si>
   <si>
-    <t>Tuotteet V2</t>
+    <t>TuotteetV2</t>
   </si>
   <si>
     <t>Timeline</t>
@@ -17427,10 +17424,13 @@
     <t>Number of the visible testimonials</t>
   </si>
   <si>
+    <t>Näkyvien suositusten lukumäärä</t>
+  </si>
+  <si>
     <t>Module template has changed</t>
   </si>
   <si>
-    <t>Moduulimalli on muuttunut</t>
+    <t>Moduulin malli on muuttunut</t>
   </si>
   <si>
     <t>Content versions</t>
@@ -17442,7 +17442,7 @@
     <t>Default layouts and elements</t>
   </si>
   <si>
-    <t>Oletusasettelut ja elementit</t>
+    <t>Oletusasettelut ja -elementit</t>
   </si>
   <si>
     <t>Arrows List</t>
@@ -17454,7 +17454,7 @@
     <t>Checked List</t>
   </si>
   <si>
-    <t>Tarkistettu luettelo</t>
+    <t>Tarkistettu lista</t>
   </si>
   <si>
     <t>Background Text</t>
@@ -17484,7 +17484,7 @@
     <t>Two text columns with icon and title</t>
   </si>
   <si>
-    <t>Kaksi tekstisaraketta kuvakkeella ja otsikolla</t>
+    <t>Kaksi tekstisaraketta, joissa on kuvake ja otsikko</t>
   </si>
   <si>
     <t>Image with Title and Text</t>
@@ -17517,12 +17517,15 @@
     <t xml:space="preserve">Setup your captcha preferences from </t>
   </si>
   <si>
-    <t xml:space="preserve">Määritä captcha-asetuksesi </t>
+    <t xml:space="preserve">Määritä captcha-asetuksesi osoitteesta </t>
   </si>
   <si>
     <t>Add / Edit fields of the form using the custom fields</t>
   </si>
   <si>
+    <t>Lisää/muokkaa lomakkeen kenttiä mukautettujen kenttien avulla</t>
+  </si>
+  <si>
     <t>Current contact form settings</t>
   </si>
   <si>
@@ -17550,25 +17553,25 @@
     <t>Send contact form data to custom receivers when is submited</t>
   </si>
   <si>
-    <t>Lähetä yhteydenottolomakkeen tiedot mukautettuihin vastaanottimiin, kun se on lähetetty</t>
+    <t>Lähetä yhteydenottolomakkeen tiedot mukautetuille vastaanottajille, kun ne on lähetetty</t>
   </si>
   <si>
     <t>Use custom receivers settings for the current contact form.</t>
   </si>
   <si>
-    <t>Käytä mukautettuja vastaanottimen asetuksia nykyiselle yhteydenottolomakkeelle.</t>
+    <t>Käytä mukautettuja vastaanottajaasetuksia nykyisessä yhteydenottolomakkeessa.</t>
   </si>
   <si>
     <t>By default we will use contact form global settings.</t>
   </si>
   <si>
-    <t>Oletuksena käytämme yhteydenottolomakkeen globaaleja asetuksia.</t>
+    <t>Käytämme oletusarvoisesti yhteydenottolomakkeen yleisiä asetuksia.</t>
   </si>
   <si>
     <t>You can change the contact form global settings here.</t>
   </si>
   <si>
-    <t>Voit muuttaa yhteydenottolomakkeen globaaleja asetuksia täällä.</t>
+    <t>Voit muuttaa yhteydenottolomakkeen yleisiä asetuksia täällä.</t>
   </si>
   <si>
     <t>Auto respond message to user</t>
@@ -17580,22 +17583,25 @@
     <t>Enable auto respond message to user</t>
   </si>
   <si>
-    <t>Ota automaattinen vastausviesti käyttöön käyttäjälle</t>
+    <t>Ota käyttöön automaattinen vastausviesti käyttäjälle</t>
   </si>
   <si>
     <t>Allow users to receive "Thank you emails after subscription."</t>
   </si>
   <si>
+    <t>Salli käyttäjien vastaanottaa kiitossähköpostiviestejä tilauksen jälkeen.</t>
+  </si>
+  <si>
     <t>Auto respond subject</t>
   </si>
   <si>
-    <t>Automaattinen vastauskohde</t>
+    <t>Automaattinen vastaus aihe</t>
   </si>
   <si>
     <t>Auto responders allows you to set up automated replies to incoming email</t>
   </si>
   <si>
-    <t>Automaattivastaaja antaa sinun määrittää automaattiset vastaukset saapuvaan sähköpostiin</t>
+    <t>Automaattisten vastaustoimintojen avulla voit määrittää automaattisia vastauksia saapuviin sähköpostiin</t>
   </si>
   <si>
     <t>Auto respond message</t>
@@ -17604,7 +17610,7 @@
     <t>Auto respond e-mail sent back to the user</t>
   </si>
   <si>
-    <t>Automaattivastaussähköposti lähetetään takaisin käyttäjälle</t>
+    <t>Automaattinen vastaussähköposti lähetetään takaisin käyttäjälle</t>
   </si>
   <si>
     <t>Auto respond custom sender</t>
@@ -17628,40 +17634,40 @@
     <t>Auto respond from name</t>
   </si>
   <si>
-    <t>Automaattinen vastaus nimen perusteella</t>
+    <t>Vastaa automaattisesti nimestä</t>
   </si>
   <si>
     <t>Auto respond reply to e-mail</t>
   </si>
   <si>
-    <t>Vastaa automaattisesti sähköpostiin</t>
-  </si>
-  <si>
     <t>When the user receive the auto respond message they can response back to reply to email.</t>
   </si>
   <si>
-    <t>Kun käyttäjä saa automaattisen vastausviestin, hän voi vastata takaisin vastaamaan sähköpostiin.</t>
+    <t>Kun käyttäjä saa automaattisen vastausviestin, hän voi vastata takaisin sähköpostiin.</t>
   </si>
   <si>
     <t>Auto respond e-mail attachments</t>
   </si>
   <si>
-    <t>Vastaa sähköpostin liitteisiin automaattisesti</t>
+    <t>Vastaa automaattisesti sähköpostin liitteisiin</t>
   </si>
   <si>
     <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
   </si>
   <si>
+    <t>Jos haluat liittää og-kuvia, sinun on ladattava ne galleriaan Lisää mediaa -kohdasta</t>
+  </si>
+  <si>
     <t>You don’t have any posts yet</t>
   </si>
   <si>
-    <t>Sinulla ei ole vielä viestejä</t>
+    <t>Sinulla ei ole vielä yhtään viestiä</t>
   </si>
   <si>
     <t>Create your first post right now.</t>
   </si>
   <si>
-    <t>Luo ensimmäinen viesti heti.</t>
+    <t>Luo ensimmäinen viestisi heti.</t>
   </si>
   <si>
     <t>Create a Post</t>
@@ -17681,12 +17687,12 @@
                                                             limit each one to 5-8 words.</t>
   </si>
   <si>
-    <t>Kuinka kirjoittaa tuotekuvauksia, jotka myyvät
-                                                    Yksi parhaista asioista, joita voit tehdä myymälän menestymiseksi, on investoida jonkin aikaa loistavien tuotekuvausten kirjoittamiseen. Haluat antaa yksityiskohtaisia mutta ytimekkäitä tietoja, jotka houkuttelevat potentiaalisia asiakkaita ostamaan.
+    <t>Myytäviä tuotekuvauksia kirjoittaminen
+                                                    Yksi parhaista asioista, joita voit tehdä myymäläsi menestyksen eteen, on käyttää aikaa loistavien tuotekuvausten kirjoittamiseen. Haluat tarjota yksityiskohtaisia mutta ytimekkäitä tietoja, jotka houkuttelevat potentiaalisia asiakkaita ostamaan.
                                                     Ajattele kuin kuluttaja
-                                                    Ajattele, mitä sinä kuluttaja haluaisit tietää, ja sisällytä sitten nämä ominaisuudet kuvaukseen. Vaatteet: materiaalit ja istuvuus. Ruokaa varten: ainesosat ja miten se valmistettiin. Luettelomerkit ovat ystäväsi, kun luet
-                                                   -ominaisuuksia - yritä
-                                                            rajoittaa kukin 5-8 sanaan.</t>
+                                                    Ajattele, mitä sinä kuluttajana haluaisit tietää, ja sisällytä sitten nämä ominaisuudet kuvaukseesi. Vaatteille: materiaalit ja istuvuus. Ruoalle: ainekset ja valmistustapa. Bulletit ovat ystäviäsi, kun luet
+                                                   ominaisuutta – yritä
+                                                            rajoittaa jokainen niistä 5–8 sanaan.</t>
   </si>
   <si>
     <t>Admin language</t>
@@ -17695,337 +17701,256 @@
     <t>Järjestelmänvalvojan kieli</t>
   </si>
   <si>
+    <t>Add post</t>
+  </si>
+  <si>
+    <t>Add subpage</t>
+  </si>
+  <si>
+    <t>Lisää alasivu</t>
+  </si>
+  <si>
+    <t>Category deleted</t>
+  </si>
+  <si>
+    <t>Kategoria poistettu</t>
+  </si>
+  <si>
+    <t>Content deleted</t>
+  </si>
+  <si>
+    <t>Sisältö poistettu</t>
+  </si>
+  <si>
+    <t>Search categories</t>
+  </si>
+  <si>
+    <t>Hae luokkia</t>
+  </si>
+  <si>
+    <t>Create content</t>
+  </si>
+  <si>
+    <t>Luo sisältöä</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Kortti</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>Minkä tahansa</t>
+  </si>
+  <si>
+    <t>Id Desc</t>
+  </si>
+  <si>
+    <t>Id Asc</t>
+  </si>
+  <si>
     <t>Limit</t>
   </si>
   <si>
+    <t>Are you sure want to delete?</t>
+  </si>
+  <si>
+    <t>You don’t have any products in</t>
+  </si>
+  <si>
+    <t>Back to</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>luokat</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Mukautetut kentät tallennetaan</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>Olemassa olevat kentät</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Valitse alla olevista olemassa olevista kentistäsi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lisää uusia kenttiä</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Lisää uusi mukautettu kenttä alla olevasta luettelosta</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>Omat kentät</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Luettelo lisäämistäsi mukautetuista kentistä</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Järjestelmä</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Blogi</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Selaimen uudelleenohjaus</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Liittäminen</t>
+  </si>
+  <si>
+    <t>Import Export Tool</t>
+  </si>
+  <si>
+    <t>Tuo vientityökalu</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Itsenäinen päivitysohjelma</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Esikatselu paketti</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Käyttää</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Nykyinen</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>Ilmaista</t>
+  </si>
+  <si>
+    <t>First Class</t>
+  </si>
+  <si>
+    <t>Ensimmäinen luokka</t>
+  </si>
+  <si>
+    <t>Click &amp; Collect</t>
+  </si>
+  <si>
+    <t>Napsauta ja kerää</t>
+  </si>
+  <si>
+    <t>Video Background</t>
+  </si>
+  <si>
+    <t>Videon tausta</t>
+  </si>
+  <si>
+    <t>Multi-Language</t>
+  </si>
+  <si>
+    <t>You can activate the Multi-language module to use multiple languages</t>
+  </si>
+  <si>
+    <t>Voit aktivoida Multi-language-moduulin käyttääksesi useita kieliä</t>
+  </si>
+  <si>
+    <t>Multi language mode</t>
+  </si>
+  <si>
+    <t>Monikielinen tila</t>
+  </si>
+  <si>
+    <t>Activate the multi-language mode to have multiple languages for your content.</t>
+  </si>
+  <si>
+    <t>Aktivoi monikielinen tila, jos haluat sisällöllesi useita kieliä.</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>Käännökset tuodaan maahan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Käännöksiä ei löydy tietokannasta. Haluatko tuoda käännöksiä? </t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Ostoskorisi on tyhjä.</t>
+  </si>
+  <si>
     <t>Code Editor</t>
   </si>
   <si>
     <t>Koodieditori</t>
   </si>
   <si>
-    <t>Blog</t>
-  </si>
-  <si>
-    <t>Blogi</t>
-  </si>
-  <si>
-    <t>titles</t>
-  </si>
-  <si>
-    <t>otsikoita</t>
-  </si>
-  <si>
-    <t>Titles 1</t>
-  </si>
-  <si>
-    <t>Otsikot 1</t>
-  </si>
-  <si>
-    <t>Titles 2</t>
-  </si>
-  <si>
-    <t>Otsikot 2</t>
-  </si>
-  <si>
-    <t>Titles 3</t>
-  </si>
-  <si>
-    <t>Otsikot 3</t>
-  </si>
-  <si>
-    <t>Titles 4</t>
-  </si>
-  <si>
-    <t>Otsikot 4</t>
-  </si>
-  <si>
-    <t>Titles 5</t>
-  </si>
-  <si>
-    <t>Otsikot 5</t>
-  </si>
-  <si>
-    <t>Titles 6</t>
-  </si>
-  <si>
-    <t>Otsikot 6</t>
-  </si>
-  <si>
-    <t>Titles 7</t>
-  </si>
-  <si>
-    <t>Otsikot 7</t>
-  </si>
-  <si>
-    <t>Titles 8</t>
-  </si>
-  <si>
-    <t>Otsikot 8</t>
-  </si>
-  <si>
-    <t>text block</t>
-  </si>
-  <si>
-    <t>tekstilohko</t>
-  </si>
-  <si>
-    <t>Text block 1</t>
-  </si>
-  <si>
-    <t>Tekstilohko 1</t>
-  </si>
-  <si>
-    <t>Text block 2</t>
-  </si>
-  <si>
-    <t>Tekstilohko 2</t>
-  </si>
-  <si>
-    <t>Text block 3</t>
-  </si>
-  <si>
-    <t>Tekstilohko 3</t>
-  </si>
-  <si>
-    <t>Text block 4</t>
-  </si>
-  <si>
-    <t>Tekstilohko 4</t>
-  </si>
-  <si>
-    <t>Text block 5</t>
-  </si>
-  <si>
-    <t>Tekstilohko 5</t>
-  </si>
-  <si>
-    <t>Text block 6</t>
-  </si>
-  <si>
-    <t>Tekstilohko 6</t>
-  </si>
-  <si>
-    <t>Text block 7</t>
-  </si>
-  <si>
-    <t>Tekstilohko 7</t>
-  </si>
-  <si>
-    <t>Text block 8</t>
-  </si>
-  <si>
-    <t>Tekstilohko 8</t>
-  </si>
-  <si>
-    <t>Text block 9</t>
-  </si>
-  <si>
-    <t>Tekstilohko 9</t>
-  </si>
-  <si>
-    <t>Text block 10</t>
-  </si>
-  <si>
-    <t>Tekstilohko 10</t>
-  </si>
-  <si>
-    <t>Text block 11</t>
-  </si>
-  <si>
-    <t>Tekstilohko 11</t>
-  </si>
-  <si>
-    <t>Text block 12</t>
-  </si>
-  <si>
-    <t>Tekstilohko 12</t>
-  </si>
-  <si>
-    <t>Text block 13</t>
-  </si>
-  <si>
-    <t>Tekstilohko 13</t>
-  </si>
-  <si>
-    <t>Text block 14</t>
-  </si>
-  <si>
-    <t>Tekstilohko 14</t>
-  </si>
-  <si>
-    <t>Text block 15</t>
-  </si>
-  <si>
-    <t>Tekstilohko 15</t>
-  </si>
-  <si>
-    <t>features</t>
-  </si>
-  <si>
-    <t>Features 1</t>
-  </si>
-  <si>
-    <t>Ominaisuudet 1</t>
-  </si>
-  <si>
-    <t>Features 2</t>
-  </si>
-  <si>
-    <t>Ominaisuudet 2</t>
-  </si>
-  <si>
-    <t>Features 3</t>
-  </si>
-  <si>
-    <t>Ominaisuudet 3</t>
-  </si>
-  <si>
-    <t>Features 4</t>
-  </si>
-  <si>
-    <t>Ominaisuudet 4</t>
-  </si>
-  <si>
-    <t>grids</t>
-  </si>
-  <si>
-    <t>ruudukot</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>valikosta</t>
-  </si>
-  <si>
-    <t>Menu - skin-1</t>
-  </si>
-  <si>
-    <t>Menu - skin-2</t>
-  </si>
-  <si>
-    <t>Menu - skin-3</t>
-  </si>
-  <si>
-    <t>Valikko - iho-3</t>
-  </si>
-  <si>
-    <t>Menu - skin-4</t>
-  </si>
-  <si>
-    <t>Menu - iho-4</t>
-  </si>
-  <si>
-    <t>Menu - skin-5</t>
-  </si>
-  <si>
-    <t>footers</t>
-  </si>
-  <si>
-    <t>alatunnisteet</t>
-  </si>
-  <si>
-    <t>Footers 1</t>
-  </si>
-  <si>
-    <t>Alatunnisteet 1</t>
-  </si>
-  <si>
-    <t>Footers 2</t>
-  </si>
-  <si>
-    <t>Alatunnisteet 2</t>
-  </si>
-  <si>
-    <t>Footers 3</t>
-  </si>
-  <si>
-    <t>Alatunnisteet 3</t>
-  </si>
-  <si>
-    <t>Footers 4</t>
-  </si>
-  <si>
-    <t>Alatunnisteet 4</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>muu</t>
-  </si>
-  <si>
-    <t>jumbotron</t>
-  </si>
-  <si>
-    <t>Jumbotron 1</t>
-  </si>
-  <si>
-    <t>pricing</t>
-  </si>
-  <si>
-    <t>hinnoittelu</t>
-  </si>
-  <si>
-    <t>Pricing 1</t>
-  </si>
-  <si>
-    <t>Hinnoittelu 1</t>
-  </si>
-  <si>
     <t>Default layouts</t>
   </si>
   <si>
     <t>Oletusasettelut</t>
   </si>
   <si>
-    <t>No Content Here</t>
-  </si>
-  <si>
-    <t>Ei sisältöä täällä</t>
-  </si>
-  <si>
-    <t>Custom fields are saved</t>
-  </si>
-  <si>
-    <t>Mukautetut kentät tallennetaan</t>
-  </si>
-  <si>
-    <t>Existing fields</t>
-  </si>
-  <si>
-    <t>Olemassa olevat kentät</t>
-  </si>
-  <si>
-    <t>Choose from your existing fields bellow</t>
-  </si>
-  <si>
-    <t>Valitse alla olevista olemassa olevista kentistäsi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Add new fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lisää uusia kenttiä</t>
-  </si>
-  <si>
-    <t>Add new custom field from list bellow</t>
-  </si>
-  <si>
-    <t>Lisää uusi mukautettu kenttä alla olevasta luettelosta</t>
-  </si>
-  <si>
-    <t>Your fields</t>
-  </si>
-  <si>
-    <t>Sinun kentäsi</t>
-  </si>
-  <si>
-    <t>List of your added custom fields</t>
-  </si>
-  <si>
-    <t>Luettelo lisäämistäsi mukautetuista kentistä</t>
+    <t>New import</t>
+  </si>
+  <si>
+    <t>Uusi tuonti</t>
   </si>
   <si>
     <t xml:space="preserve">repeat vertically </t>
@@ -18074,501 +17999,6 @@
   </si>
   <si>
     <t>Ladataan tyylejä uudelleen</t>
-  </si>
-  <si>
-    <t>Links to</t>
-  </si>
-  <si>
-    <t>Linkkejä kohteeseen</t>
-  </si>
-  <si>
-    <t>Preview package</t>
-  </si>
-  <si>
-    <t>Esikatselu paketti</t>
-  </si>
-  <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>Use</t>
-  </si>
-  <si>
-    <t>Käyttää</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>Nykyinen</t>
-  </si>
-  <si>
-    <t>Reorder</t>
-  </si>
-  <si>
-    <t>Järjestä uudelleen</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Järjestelmä</t>
-  </si>
-  <si>
-    <t>Browser Redirect</t>
-  </si>
-  <si>
-    <t>Selaimen uudelleenohjaus</t>
-  </si>
-  <si>
-    <t>Integration</t>
-  </si>
-  <si>
-    <t>Liittäminen</t>
-  </si>
-  <si>
-    <t>Standalone Updater</t>
-  </si>
-  <si>
-    <t>Itsenäinen päivitysohjelma</t>
-  </si>
-  <si>
-    <t>You need license key to install this package</t>
-  </si>
-  <si>
-    <t>Tarvitset lisenssiavaimen tämän paketin asentamiseen</t>
-  </si>
-  <si>
-    <t>This package is premium and you must have a license key to install it</t>
-  </si>
-  <si>
-    <t>Tämä paketti on premium-paketti, ja sinulla on oltava lisenssiavain sen asentamiseen</t>
-  </si>
-  <si>
-    <t>You need license key</t>
-  </si>
-  <si>
-    <t>Tarvitset lisenssiavaimen</t>
-  </si>
-  <si>
-    <t>License activated</t>
-  </si>
-  <si>
-    <t>Lisenssi aktivoitu</t>
-  </si>
-  <si>
-    <t>Reloading page</t>
-  </si>
-  <si>
-    <t>Ladataan sivua uudelleen</t>
-  </si>
-  <si>
-    <t>License not activated</t>
-  </si>
-  <si>
-    <t>Lisenssiä ei ole aktivoitu</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>URL-osoite</t>
-  </si>
-  <si>
-    <t>System updates</t>
-  </si>
-  <si>
-    <t>Järjestelmäpäivitykset</t>
-  </si>
-  <si>
-    <t>Check for system updates</t>
-  </si>
-  <si>
-    <t>Tarkista järjestelmäpäivitykset</t>
-  </si>
-  <si>
-    <t>Back to list</t>
-  </si>
-  <si>
-    <t>Takaisin listalle</t>
-  </si>
-  <si>
-    <t>The category must have a name</t>
-  </si>
-  <si>
-    <t>Luokassa on oltava nimi</t>
-  </si>
-  <si>
-    <t>Is category hidden?</t>
-  </si>
-  <si>
-    <t>Onko luokka piilotettu?</t>
-  </si>
-  <si>
-    <t>If you set this to YES this category will be hidden from the website</t>
-  </si>
-  <si>
-    <t>Jos asetat asetukseksi KYLLÄ, tämä luokka piilotetaan verkkosivustolta</t>
-  </si>
-  <si>
-    <t>template-big</t>
-  </si>
-  <si>
-    <t>Mentioning</t>
-  </si>
-  <si>
-    <t>Mainitseminen</t>
-  </si>
-  <si>
-    <t>Your cart is empty.</t>
-  </si>
-  <si>
-    <t>Ostoskorisi on tyhjä.</t>
-  </si>
-  <si>
-    <t>Results found</t>
-  </si>
-  <si>
-    <t>Tuloksia löytyi</t>
-  </si>
-  <si>
-    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
-  </si>
-  <si>
-    <t>Jos valitset valintakentästä Prosentti, se lasketaan automaattisesti tuotteen Hinnasta ja Tarjoushinnasta.</t>
-  </si>
-  <si>
-    <t>أضف منتج</t>
-  </si>
-  <si>
-    <t>validation</t>
-  </si>
-  <si>
-    <t>custom.multilanguage.title.en_US.required</t>
-  </si>
-  <si>
-    <t>values.multilanguage.title.en_US.</t>
-  </si>
-  <si>
-    <t>value.multilannguage.title.en_US.</t>
-  </si>
-  <si>
-    <t>تحرير المنتج</t>
-  </si>
-  <si>
-    <t>iuiuui</t>
-  </si>
-  <si>
-    <t>Proceed to Checkout</t>
-  </si>
-  <si>
-    <t>Siirry maksamaan</t>
-  </si>
-  <si>
-    <t>تحرير آخر</t>
-  </si>
-  <si>
-    <t>Displaying</t>
-  </si>
-  <si>
-    <t>Näytetään</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>result(s)</t>
-  </si>
-  <si>
-    <t>tulos (tulokset)</t>
-  </si>
-  <si>
-    <t>Page Title - Right Breadcrumb</t>
-  </si>
-  <si>
-    <t>Sivun otsikko - Oikea vaihemerkki</t>
-  </si>
-  <si>
-    <t>Page Title - Left Breadcrumb</t>
-  </si>
-  <si>
-    <t>Sivun otsikko - Vasen vaihemerkki</t>
-  </si>
-  <si>
-    <t>Terms of use</t>
-  </si>
-  <si>
-    <t>Delivery and returns</t>
-  </si>
-  <si>
-    <t>Toimitus ja palautukset</t>
-  </si>
-  <si>
-    <t>Shipping information</t>
-  </si>
-  <si>
-    <t>About 1</t>
-  </si>
-  <si>
-    <t>Noin 1</t>
-  </si>
-  <si>
-    <t>About 2</t>
-  </si>
-  <si>
-    <t>Noin 2</t>
-  </si>
-  <si>
-    <t>About 3</t>
-  </si>
-  <si>
-    <t>Noin 3</t>
-  </si>
-  <si>
-    <t>Home 1</t>
-  </si>
-  <si>
-    <t>koti 1</t>
-  </si>
-  <si>
-    <t>Home 2</t>
-  </si>
-  <si>
-    <t>Koti 2</t>
-  </si>
-  <si>
-    <t>You must click the apply template button to change your template</t>
-  </si>
-  <si>
-    <t>Sinun on napsautettava mallia -painiketta muuttaaksesi mallia</t>
-  </si>
-  <si>
-    <t>Search by criteria</t>
-  </si>
-  <si>
-    <t>Hae kriteerien mukaan</t>
-  </si>
-  <si>
-    <t>Order ID</t>
-  </si>
-  <si>
-    <t>tilausnumero</t>
-  </si>
-  <si>
-    <t>Date from</t>
-  </si>
-  <si>
-    <t>Päivämäärä alkaen</t>
-  </si>
-  <si>
-    <t>Set the orders from date</t>
-  </si>
-  <si>
-    <t>Aseta tilaukset päivämäärästä alkaen</t>
-  </si>
-  <si>
-    <t>Date to</t>
-  </si>
-  <si>
-    <t>Set the orders to date</t>
-  </si>
-  <si>
-    <t>Aseta tilaukset päivämäärään</t>
-  </si>
-  <si>
-    <t>Order amount from</t>
-  </si>
-  <si>
-    <t>Tilaussumma alkaen</t>
-  </si>
-  <si>
-    <t>Show the order with minimum amount</t>
-  </si>
-  <si>
-    <t>Näytä tilaus vähimmäismäärällä</t>
-  </si>
-  <si>
-    <t>Order amount to</t>
-  </si>
-  <si>
-    <t>Tilauksen määrä</t>
-  </si>
-  <si>
-    <t>Show the order with maximum amount</t>
-  </si>
-  <si>
-    <t>Näytä tilaus enimmäismäärällä</t>
-  </si>
-  <si>
-    <t>Search by products...</t>
-  </si>
-  <si>
-    <t>Hae tuotteiden mukaan...</t>
-  </si>
-  <si>
-    <t>Search by products</t>
-  </si>
-  <si>
-    <t>Hae tuotteiden mukaan</t>
-  </si>
-  <si>
-    <t>Payment Status</t>
-  </si>
-  <si>
-    <t>Maksun tilanne</t>
-  </si>
-  <si>
-    <t>Free search by phone, name, email etc...</t>
-  </si>
-  <si>
-    <t>Ilmainen haku puhelimella, nimellä, sähköpostilla jne...</t>
-  </si>
-  <si>
-    <t>Submit this criteria</t>
-  </si>
-  <si>
-    <t>Lähetä nämä kriteerit</t>
-  </si>
-  <si>
-    <t>Reset filter</t>
-  </si>
-  <si>
-    <t>Nollaa suodatin</t>
-  </si>
-  <si>
-    <t>Export all</t>
-  </si>
-  <si>
-    <t>Vie kaikki</t>
-  </si>
-  <si>
-    <t>Select sorting</t>
-  </si>
-  <si>
-    <t>Valitse lajittelu</t>
-  </si>
-  <si>
-    <t>Order date</t>
-  </si>
-  <si>
-    <t>Tilauspäivämäärä</t>
-  </si>
-  <si>
-    <t>[New &gt; Old]</t>
-  </si>
-  <si>
-    <t>[Uusi &gt; Vanha]</t>
-  </si>
-  <si>
-    <t>[Old &gt; New]</t>
-  </si>
-  <si>
-    <t>[Vanha &gt; Uusi]</t>
-  </si>
-  <si>
-    <t>[High &gt; Low]</t>
-  </si>
-  <si>
-    <t>[Korkea &gt; Matala]</t>
-  </si>
-  <si>
-    <t>[Low &gt; High]</t>
-  </si>
-  <si>
-    <t>[Matala &gt; Korkea]</t>
-  </si>
-  <si>
-    <t>Order completed</t>
-  </si>
-  <si>
-    <t>Tilaus suoritettu</t>
-  </si>
-  <si>
-    <t>translations from the multilnaguage module have been found in your database.</t>
-  </si>
-  <si>
-    <t>käännökset monikielisestä moduulista on löydetty tietokannastasi.</t>
-  </si>
-  <si>
-    <t>Warning! Changing the default language can break translations on your site.</t>
-  </si>
-  <si>
-    <t>Varoitus! Oletuskielen muuttaminen voi rikkoa käännöksiä sivustollasi.</t>
-  </si>
-  <si>
-    <t>Are you sure want to continue?</t>
-  </si>
-  <si>
-    <t>Haluatko varmasti jatkaa?</t>
-  </si>
-  <si>
-    <t>Warning! The changing default language maybe will break your site.</t>
-  </si>
-  <si>
-    <t>Varoitus! Vaihtuva oletuskieli saattaa rikkoa sivustosi.</t>
-  </si>
-  <si>
-    <t>Shipping details</t>
-  </si>
-  <si>
-    <t>Rahti tiedot</t>
-  </si>
-  <si>
-    <t>Shipping type</t>
-  </si>
-  <si>
-    <t>Toimitustyyppi</t>
-  </si>
-  <si>
-    <t>the order is not completed yet</t>
-  </si>
-  <si>
-    <t>tilaus ei ole vielä valmis</t>
-  </si>
-  <si>
-    <t>the order is completed</t>
-  </si>
-  <si>
-    <t>tilaus on valmis</t>
-  </si>
-  <si>
-    <t>Created at</t>
-  </si>
-  <si>
-    <t>Luotu klo</t>
-  </si>
-  <si>
-    <t>Updated at</t>
-  </si>
-  <si>
-    <t>Päivitetty klo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick view </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katsaus </t>
-  </si>
-  <si>
-    <t>Replace language values</t>
-  </si>
-  <si>
-    <t>Korvaa kieliarvot</t>
-  </si>
-  <si>
-    <t>Translations are imported</t>
-  </si>
-  <si>
-    <t>Käännökset tuodaan maahan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Käännöksiä ei löydy tietokannasta. Haluatko tuoda käännöksiä? </t>
   </si>
 </sst>
 </file>
@@ -18904,7 +18334,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3217"/>
+  <dimension ref="A1:E3119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -69294,7 +68724,7 @@
         <v>5701</v>
       </c>
       <c r="D2964" t="s">
-        <v>5702</v>
+        <v>1401</v>
       </c>
       <c r="E2964" t="s">
         <v>8</v>
@@ -69308,10 +68738,10 @@
         <v>5</v>
       </c>
       <c r="C2965" t="s">
+        <v>5702</v>
+      </c>
+      <c r="D2965" t="s">
         <v>5703</v>
-      </c>
-      <c r="D2965" t="s">
-        <v>5704</v>
       </c>
       <c r="E2965" t="s">
         <v>8</v>
@@ -69325,10 +68755,10 @@
         <v>5</v>
       </c>
       <c r="C2966" t="s">
+        <v>5704</v>
+      </c>
+      <c r="D2966" t="s">
         <v>5705</v>
-      </c>
-      <c r="D2966" t="s">
-        <v>5706</v>
       </c>
       <c r="E2966" t="s">
         <v>8</v>
@@ -69342,10 +68772,10 @@
         <v>5</v>
       </c>
       <c r="C2967" t="s">
+        <v>5706</v>
+      </c>
+      <c r="D2967" t="s">
         <v>5707</v>
-      </c>
-      <c r="D2967" t="s">
-        <v>5708</v>
       </c>
       <c r="E2967" t="s">
         <v>8</v>
@@ -69359,10 +68789,10 @@
         <v>5</v>
       </c>
       <c r="C2968" t="s">
+        <v>5708</v>
+      </c>
+      <c r="D2968" t="s">
         <v>5709</v>
-      </c>
-      <c r="D2968" t="s">
-        <v>5710</v>
       </c>
       <c r="E2968" t="s">
         <v>8</v>
@@ -69376,10 +68806,10 @@
         <v>5</v>
       </c>
       <c r="C2969" t="s">
+        <v>5710</v>
+      </c>
+      <c r="D2969" t="s">
         <v>5711</v>
-      </c>
-      <c r="D2969" t="s">
-        <v>5712</v>
       </c>
       <c r="E2969" t="s">
         <v>8</v>
@@ -69393,10 +68823,10 @@
         <v>5</v>
       </c>
       <c r="C2970" t="s">
+        <v>5712</v>
+      </c>
+      <c r="D2970" t="s">
         <v>5713</v>
-      </c>
-      <c r="D2970" t="s">
-        <v>5714</v>
       </c>
       <c r="E2970" t="s">
         <v>8</v>
@@ -69410,10 +68840,10 @@
         <v>5</v>
       </c>
       <c r="C2971" t="s">
+        <v>5714</v>
+      </c>
+      <c r="D2971" t="s">
         <v>5715</v>
-      </c>
-      <c r="D2971" t="s">
-        <v>5716</v>
       </c>
       <c r="E2971" t="s">
         <v>8</v>
@@ -69427,10 +68857,10 @@
         <v>5</v>
       </c>
       <c r="C2972" t="s">
+        <v>5716</v>
+      </c>
+      <c r="D2972" t="s">
         <v>5717</v>
-      </c>
-      <c r="D2972" t="s">
-        <v>5718</v>
       </c>
       <c r="E2972" t="s">
         <v>8</v>
@@ -69444,10 +68874,10 @@
         <v>5</v>
       </c>
       <c r="C2973" t="s">
+        <v>5718</v>
+      </c>
+      <c r="D2973" t="s">
         <v>5719</v>
-      </c>
-      <c r="D2973" t="s">
-        <v>5720</v>
       </c>
       <c r="E2973" t="s">
         <v>8</v>
@@ -69461,10 +68891,10 @@
         <v>5</v>
       </c>
       <c r="C2974" t="s">
+        <v>5720</v>
+      </c>
+      <c r="D2974" t="s">
         <v>5721</v>
-      </c>
-      <c r="D2974" t="s">
-        <v>5722</v>
       </c>
       <c r="E2974" t="s">
         <v>8</v>
@@ -69478,10 +68908,10 @@
         <v>5</v>
       </c>
       <c r="C2975" t="s">
+        <v>5722</v>
+      </c>
+      <c r="D2975" t="s">
         <v>5723</v>
-      </c>
-      <c r="D2975" t="s">
-        <v>5724</v>
       </c>
       <c r="E2975" t="s">
         <v>8</v>
@@ -69495,10 +68925,10 @@
         <v>5</v>
       </c>
       <c r="C2976" t="s">
+        <v>5724</v>
+      </c>
+      <c r="D2976" t="s">
         <v>5725</v>
-      </c>
-      <c r="D2976" t="s">
-        <v>5726</v>
       </c>
       <c r="E2976" t="s">
         <v>8</v>
@@ -69512,10 +68942,10 @@
         <v>5</v>
       </c>
       <c r="C2977" t="s">
+        <v>5726</v>
+      </c>
+      <c r="D2977" t="s">
         <v>5727</v>
-      </c>
-      <c r="D2977" t="s">
-        <v>5728</v>
       </c>
       <c r="E2977" t="s">
         <v>8</v>
@@ -69529,10 +68959,10 @@
         <v>5</v>
       </c>
       <c r="C2978" t="s">
+        <v>5728</v>
+      </c>
+      <c r="D2978" t="s">
         <v>5729</v>
-      </c>
-      <c r="D2978" t="s">
-        <v>5730</v>
       </c>
       <c r="E2978" t="s">
         <v>8</v>
@@ -69546,10 +68976,10 @@
         <v>5</v>
       </c>
       <c r="C2979" t="s">
+        <v>5730</v>
+      </c>
+      <c r="D2979" t="s">
         <v>5731</v>
-      </c>
-      <c r="D2979" t="s">
-        <v>5732</v>
       </c>
       <c r="E2979" t="s">
         <v>8</v>
@@ -69563,10 +68993,10 @@
         <v>5</v>
       </c>
       <c r="C2980" t="s">
+        <v>5732</v>
+      </c>
+      <c r="D2980" t="s">
         <v>5733</v>
-      </c>
-      <c r="D2980" t="s">
-        <v>5734</v>
       </c>
       <c r="E2980" t="s">
         <v>8</v>
@@ -69580,10 +69010,10 @@
         <v>5</v>
       </c>
       <c r="C2981" t="s">
+        <v>5734</v>
+      </c>
+      <c r="D2981" t="s">
         <v>5735</v>
-      </c>
-      <c r="D2981" t="s">
-        <v>5736</v>
       </c>
       <c r="E2981" t="s">
         <v>8</v>
@@ -69597,10 +69027,10 @@
         <v>5</v>
       </c>
       <c r="C2982" t="s">
+        <v>5736</v>
+      </c>
+      <c r="D2982" t="s">
         <v>5737</v>
-      </c>
-      <c r="D2982" t="s">
-        <v>5738</v>
       </c>
       <c r="E2982" t="s">
         <v>8</v>
@@ -69614,10 +69044,10 @@
         <v>5</v>
       </c>
       <c r="C2983" t="s">
+        <v>5738</v>
+      </c>
+      <c r="D2983" t="s">
         <v>5739</v>
-      </c>
-      <c r="D2983" t="s">
-        <v>5740</v>
       </c>
       <c r="E2983" t="s">
         <v>8</v>
@@ -69631,10 +69061,10 @@
         <v>5</v>
       </c>
       <c r="C2984" t="s">
+        <v>5740</v>
+      </c>
+      <c r="D2984" t="s">
         <v>5741</v>
-      </c>
-      <c r="D2984" t="s">
-        <v>5742</v>
       </c>
       <c r="E2984" t="s">
         <v>8</v>
@@ -69648,10 +69078,10 @@
         <v>5</v>
       </c>
       <c r="C2985" t="s">
+        <v>5742</v>
+      </c>
+      <c r="D2985" t="s">
         <v>5743</v>
-      </c>
-      <c r="D2985" t="s">
-        <v>5744</v>
       </c>
       <c r="E2985" t="s">
         <v>8</v>
@@ -69665,10 +69095,10 @@
         <v>5</v>
       </c>
       <c r="C2986" t="s">
+        <v>5744</v>
+      </c>
+      <c r="D2986" t="s">
         <v>5745</v>
-      </c>
-      <c r="D2986" t="s">
-        <v>5746</v>
       </c>
       <c r="E2986" t="s">
         <v>8</v>
@@ -69682,10 +69112,10 @@
         <v>5</v>
       </c>
       <c r="C2987" t="s">
+        <v>5746</v>
+      </c>
+      <c r="D2987" t="s">
         <v>5747</v>
-      </c>
-      <c r="D2987" t="s">
-        <v>5748</v>
       </c>
       <c r="E2987" t="s">
         <v>8</v>
@@ -69699,7 +69129,7 @@
         <v>5</v>
       </c>
       <c r="C2988" t="s">
-        <v>5749</v>
+        <v>5748</v>
       </c>
       <c r="D2988" t="s">
         <v>651</v>
@@ -69716,10 +69146,10 @@
         <v>5</v>
       </c>
       <c r="C2989" t="s">
+        <v>5749</v>
+      </c>
+      <c r="D2989" t="s">
         <v>5750</v>
-      </c>
-      <c r="D2989" t="s">
-        <v>5751</v>
       </c>
       <c r="E2989" t="s">
         <v>8</v>
@@ -69733,10 +69163,10 @@
         <v>5</v>
       </c>
       <c r="C2990" t="s">
+        <v>5751</v>
+      </c>
+      <c r="D2990" t="s">
         <v>5752</v>
-      </c>
-      <c r="D2990" t="s">
-        <v>5753</v>
       </c>
       <c r="E2990" t="s">
         <v>8</v>
@@ -69750,7 +69180,7 @@
         <v>5</v>
       </c>
       <c r="C2991" t="s">
-        <v>5754</v>
+        <v>5753</v>
       </c>
       <c r="D2991" t="s">
         <v>3398</v>
@@ -69767,7 +69197,7 @@
         <v>5</v>
       </c>
       <c r="C2992" t="s">
-        <v>5755</v>
+        <v>5754</v>
       </c>
       <c r="D2992" t="s">
         <v>2402</v>
@@ -69784,10 +69214,10 @@
         <v>5</v>
       </c>
       <c r="C2993" t="s">
+        <v>5755</v>
+      </c>
+      <c r="D2993" t="s">
         <v>5756</v>
-      </c>
-      <c r="D2993" t="s">
-        <v>5757</v>
       </c>
       <c r="E2993" t="s">
         <v>8</v>
@@ -69801,10 +69231,10 @@
         <v>5</v>
       </c>
       <c r="C2994" t="s">
+        <v>5757</v>
+      </c>
+      <c r="D2994" t="s">
         <v>5758</v>
-      </c>
-      <c r="D2994" t="s">
-        <v>5759</v>
       </c>
       <c r="E2994" t="s">
         <v>8</v>
@@ -69818,10 +69248,10 @@
         <v>5</v>
       </c>
       <c r="C2995" t="s">
+        <v>5759</v>
+      </c>
+      <c r="D2995" t="s">
         <v>5760</v>
-      </c>
-      <c r="D2995" t="s">
-        <v>5761</v>
       </c>
       <c r="E2995" t="s">
         <v>8</v>
@@ -69835,10 +69265,10 @@
         <v>5</v>
       </c>
       <c r="C2996" t="s">
+        <v>5761</v>
+      </c>
+      <c r="D2996" t="s">
         <v>5762</v>
-      </c>
-      <c r="D2996" t="s">
-        <v>5763</v>
       </c>
       <c r="E2996" t="s">
         <v>8</v>
@@ -69852,10 +69282,10 @@
         <v>5</v>
       </c>
       <c r="C2997" t="s">
+        <v>5763</v>
+      </c>
+      <c r="D2997" t="s">
         <v>5764</v>
-      </c>
-      <c r="D2997" t="s">
-        <v>5765</v>
       </c>
       <c r="E2997" t="s">
         <v>8</v>
@@ -69869,10 +69299,10 @@
         <v>5</v>
       </c>
       <c r="C2998" t="s">
+        <v>5765</v>
+      </c>
+      <c r="D2998" t="s">
         <v>5766</v>
-      </c>
-      <c r="D2998" t="s">
-        <v>5767</v>
       </c>
       <c r="E2998" t="s">
         <v>8</v>
@@ -69886,10 +69316,10 @@
         <v>5</v>
       </c>
       <c r="C2999" t="s">
+        <v>5767</v>
+      </c>
+      <c r="D2999" t="s">
         <v>5768</v>
-      </c>
-      <c r="D2999" t="s">
-        <v>5769</v>
       </c>
       <c r="E2999" t="s">
         <v>8</v>
@@ -69903,10 +69333,10 @@
         <v>5</v>
       </c>
       <c r="C3000" t="s">
+        <v>5769</v>
+      </c>
+      <c r="D3000" t="s">
         <v>5770</v>
-      </c>
-      <c r="D3000" t="s">
-        <v>5771</v>
       </c>
       <c r="E3000" t="s">
         <v>8</v>
@@ -69920,10 +69350,10 @@
         <v>5</v>
       </c>
       <c r="C3001" t="s">
+        <v>5771</v>
+      </c>
+      <c r="D3001" t="s">
         <v>5772</v>
-      </c>
-      <c r="D3001" t="s">
-        <v>5773</v>
       </c>
       <c r="E3001" t="s">
         <v>8</v>
@@ -69937,10 +69367,10 @@
         <v>5</v>
       </c>
       <c r="C3002" t="s">
+        <v>5773</v>
+      </c>
+      <c r="D3002" t="s">
         <v>5774</v>
-      </c>
-      <c r="D3002" t="s">
-        <v>5775</v>
       </c>
       <c r="E3002" t="s">
         <v>8</v>
@@ -69954,10 +69384,10 @@
         <v>5</v>
       </c>
       <c r="C3003" t="s">
+        <v>5775</v>
+      </c>
+      <c r="D3003" t="s">
         <v>5776</v>
-      </c>
-      <c r="D3003" t="s">
-        <v>5777</v>
       </c>
       <c r="E3003" t="s">
         <v>8</v>
@@ -69971,10 +69401,10 @@
         <v>5</v>
       </c>
       <c r="C3004" t="s">
+        <v>5777</v>
+      </c>
+      <c r="D3004" t="s">
         <v>5778</v>
-      </c>
-      <c r="D3004" t="s">
-        <v>5779</v>
       </c>
       <c r="E3004" t="s">
         <v>8</v>
@@ -69988,10 +69418,10 @@
         <v>5</v>
       </c>
       <c r="C3005" t="s">
+        <v>5779</v>
+      </c>
+      <c r="D3005" t="s">
         <v>5780</v>
-      </c>
-      <c r="D3005" t="s">
-        <v>5781</v>
       </c>
       <c r="E3005" t="s">
         <v>8</v>
@@ -70005,10 +69435,10 @@
         <v>5</v>
       </c>
       <c r="C3006" t="s">
+        <v>5781</v>
+      </c>
+      <c r="D3006" t="s">
         <v>5782</v>
-      </c>
-      <c r="D3006" t="s">
-        <v>5783</v>
       </c>
       <c r="E3006" t="s">
         <v>8</v>
@@ -70022,10 +69452,10 @@
         <v>5</v>
       </c>
       <c r="C3007" t="s">
+        <v>5783</v>
+      </c>
+      <c r="D3007" t="s">
         <v>5784</v>
-      </c>
-      <c r="D3007" t="s">
-        <v>5785</v>
       </c>
       <c r="E3007" t="s">
         <v>8</v>
@@ -70039,10 +69469,10 @@
         <v>5</v>
       </c>
       <c r="C3008" t="s">
+        <v>5785</v>
+      </c>
+      <c r="D3008" t="s">
         <v>5786</v>
-      </c>
-      <c r="D3008" t="s">
-        <v>5787</v>
       </c>
       <c r="E3008" t="s">
         <v>8</v>
@@ -70056,7 +69486,7 @@
         <v>5</v>
       </c>
       <c r="C3009" t="s">
-        <v>5788</v>
+        <v>5787</v>
       </c>
       <c r="D3009" t="s">
         <v>3224</v>
@@ -70073,10 +69503,10 @@
         <v>5</v>
       </c>
       <c r="C3010" t="s">
+        <v>5788</v>
+      </c>
+      <c r="D3010" t="s">
         <v>5789</v>
-      </c>
-      <c r="D3010" t="s">
-        <v>5790</v>
       </c>
       <c r="E3010" t="s">
         <v>8</v>
@@ -70090,10 +69520,10 @@
         <v>5</v>
       </c>
       <c r="C3011" t="s">
+        <v>5790</v>
+      </c>
+      <c r="D3011" t="s">
         <v>5791</v>
-      </c>
-      <c r="D3011" t="s">
-        <v>5792</v>
       </c>
       <c r="E3011" t="s">
         <v>8</v>
@@ -70107,10 +69537,10 @@
         <v>5</v>
       </c>
       <c r="C3012" t="s">
-        <v>5793</v>
+        <v>5792</v>
       </c>
       <c r="D3012" t="s">
-        <v>5793</v>
+        <v>5792</v>
       </c>
       <c r="E3012" t="s">
         <v>8</v>
@@ -70124,10 +69554,10 @@
         <v>5</v>
       </c>
       <c r="C3013" t="s">
-        <v>5794</v>
+        <v>5793</v>
       </c>
       <c r="D3013" t="s">
-        <v>5794</v>
+        <v>5793</v>
       </c>
       <c r="E3013" t="s">
         <v>8</v>
@@ -70141,10 +69571,10 @@
         <v>5</v>
       </c>
       <c r="C3014" t="s">
+        <v>5794</v>
+      </c>
+      <c r="D3014" t="s">
         <v>5795</v>
-      </c>
-      <c r="D3014" t="s">
-        <v>5796</v>
       </c>
       <c r="E3014" t="s">
         <v>8</v>
@@ -70158,10 +69588,10 @@
         <v>5</v>
       </c>
       <c r="C3015" t="s">
+        <v>5796</v>
+      </c>
+      <c r="D3015" t="s">
         <v>5797</v>
-      </c>
-      <c r="D3015" t="s">
-        <v>5798</v>
       </c>
       <c r="E3015" t="s">
         <v>8</v>
@@ -70175,10 +69605,10 @@
         <v>5</v>
       </c>
       <c r="C3016" t="s">
+        <v>5798</v>
+      </c>
+      <c r="D3016" t="s">
         <v>5799</v>
-      </c>
-      <c r="D3016" t="s">
-        <v>5800</v>
       </c>
       <c r="E3016" t="s">
         <v>8</v>
@@ -70192,10 +69622,10 @@
         <v>5</v>
       </c>
       <c r="C3017" t="s">
+        <v>5800</v>
+      </c>
+      <c r="D3017" t="s">
         <v>5801</v>
-      </c>
-      <c r="D3017" t="s">
-        <v>3321</v>
       </c>
       <c r="E3017" t="s">
         <v>8</v>
@@ -70501,7 +69931,7 @@
         <v>5833</v>
       </c>
       <c r="D3035" t="s">
-        <v>4914</v>
+        <v>5834</v>
       </c>
       <c r="E3035" t="s">
         <v>8</v>
@@ -70515,10 +69945,10 @@
         <v>5</v>
       </c>
       <c r="C3036" t="s">
-        <v>5834</v>
+        <v>5835</v>
       </c>
       <c r="D3036" t="s">
-        <v>5835</v>
+        <v>5836</v>
       </c>
       <c r="E3036" t="s">
         <v>8</v>
@@ -70532,10 +69962,10 @@
         <v>5</v>
       </c>
       <c r="C3037" t="s">
-        <v>5836</v>
+        <v>5837</v>
       </c>
       <c r="D3037" t="s">
-        <v>5837</v>
+        <v>5838</v>
       </c>
       <c r="E3037" t="s">
         <v>8</v>
@@ -70549,10 +69979,10 @@
         <v>5</v>
       </c>
       <c r="C3038" t="s">
-        <v>5838</v>
+        <v>5839</v>
       </c>
       <c r="D3038" t="s">
-        <v>5839</v>
+        <v>5840</v>
       </c>
       <c r="E3038" t="s">
         <v>8</v>
@@ -70566,10 +69996,10 @@
         <v>5</v>
       </c>
       <c r="C3039" t="s">
-        <v>5840</v>
+        <v>5841</v>
       </c>
       <c r="D3039" t="s">
-        <v>5841</v>
+        <v>5842</v>
       </c>
       <c r="E3039" t="s">
         <v>8</v>
@@ -70583,10 +70013,10 @@
         <v>5</v>
       </c>
       <c r="C3040" t="s">
-        <v>5842</v>
+        <v>5843</v>
       </c>
       <c r="D3040" t="s">
-        <v>5843</v>
+        <v>5844</v>
       </c>
       <c r="E3040" t="s">
         <v>8</v>
@@ -70600,10 +70030,10 @@
         <v>5</v>
       </c>
       <c r="C3041" t="s">
-        <v>5844</v>
+        <v>5845</v>
       </c>
       <c r="D3041" t="s">
-        <v>5845</v>
+        <v>5846</v>
       </c>
       <c r="E3041" t="s">
         <v>8</v>
@@ -70617,10 +70047,10 @@
         <v>5</v>
       </c>
       <c r="C3042" t="s">
-        <v>5846</v>
+        <v>5847</v>
       </c>
       <c r="D3042" t="s">
-        <v>5847</v>
+        <v>5848</v>
       </c>
       <c r="E3042" t="s">
         <v>8</v>
@@ -70634,10 +70064,10 @@
         <v>5</v>
       </c>
       <c r="C3043" t="s">
-        <v>5848</v>
+        <v>5849</v>
       </c>
       <c r="D3043" t="s">
-        <v>5849</v>
+        <v>5850</v>
       </c>
       <c r="E3043" t="s">
         <v>8</v>
@@ -70651,10 +70081,10 @@
         <v>5</v>
       </c>
       <c r="C3044" t="s">
-        <v>5850</v>
+        <v>5851</v>
       </c>
       <c r="D3044" t="s">
-        <v>5851</v>
+        <v>5852</v>
       </c>
       <c r="E3044" t="s">
         <v>8</v>
@@ -70668,10 +70098,10 @@
         <v>5</v>
       </c>
       <c r="C3045" t="s">
-        <v>5852</v>
+        <v>5853</v>
       </c>
       <c r="D3045" t="s">
-        <v>5853</v>
+        <v>5854</v>
       </c>
       <c r="E3045" t="s">
         <v>8</v>
@@ -70685,10 +70115,10 @@
         <v>5</v>
       </c>
       <c r="C3046" t="s">
-        <v>5854</v>
+        <v>5855</v>
       </c>
       <c r="D3046" t="s">
-        <v>3124</v>
+        <v>5856</v>
       </c>
       <c r="E3046" t="s">
         <v>8</v>
@@ -70702,10 +70132,10 @@
         <v>5</v>
       </c>
       <c r="C3047" t="s">
-        <v>5855</v>
+        <v>5857</v>
       </c>
       <c r="D3047" t="s">
-        <v>5856</v>
+        <v>5858</v>
       </c>
       <c r="E3047" t="s">
         <v>8</v>
@@ -70719,10 +70149,10 @@
         <v>5</v>
       </c>
       <c r="C3048" t="s">
-        <v>5857</v>
+        <v>5859</v>
       </c>
       <c r="D3048" t="s">
-        <v>5858</v>
+        <v>5860</v>
       </c>
       <c r="E3048" t="s">
         <v>8</v>
@@ -70736,7 +70166,7 @@
         <v>5</v>
       </c>
       <c r="C3049" t="s">
-        <v>5859</v>
+        <v>5861</v>
       </c>
       <c r="D3049" t="s">
         <v>3120</v>
@@ -70753,10 +70183,10 @@
         <v>5</v>
       </c>
       <c r="C3050" t="s">
-        <v>5860</v>
+        <v>5862</v>
       </c>
       <c r="D3050" t="s">
-        <v>5861</v>
+        <v>5863</v>
       </c>
       <c r="E3050" t="s">
         <v>8</v>
@@ -70770,10 +70200,10 @@
         <v>5</v>
       </c>
       <c r="C3051" t="s">
-        <v>5862</v>
+        <v>5864</v>
       </c>
       <c r="D3051" t="s">
-        <v>5863</v>
+        <v>5865</v>
       </c>
       <c r="E3051" t="s">
         <v>8</v>
@@ -70787,10 +70217,10 @@
         <v>5</v>
       </c>
       <c r="C3052" t="s">
-        <v>5864</v>
+        <v>5866</v>
       </c>
       <c r="D3052" t="s">
-        <v>5865</v>
+        <v>5867</v>
       </c>
       <c r="E3052" t="s">
         <v>8</v>
@@ -70804,10 +70234,10 @@
         <v>5</v>
       </c>
       <c r="C3053" t="s">
-        <v>5866</v>
+        <v>5868</v>
       </c>
       <c r="D3053" t="s">
-        <v>5867</v>
+        <v>5869</v>
       </c>
       <c r="E3053" t="s">
         <v>8</v>
@@ -70821,10 +70251,10 @@
         <v>5</v>
       </c>
       <c r="C3054" t="s">
-        <v>5868</v>
+        <v>5870</v>
       </c>
       <c r="D3054" t="s">
-        <v>5869</v>
+        <v>5871</v>
       </c>
       <c r="E3054" t="s">
         <v>8</v>
@@ -70838,10 +70268,10 @@
         <v>5</v>
       </c>
       <c r="C3055" t="s">
-        <v>5870</v>
+        <v>5872</v>
       </c>
       <c r="D3055" t="s">
-        <v>5871</v>
+        <v>2408</v>
       </c>
       <c r="E3055" t="s">
         <v>8</v>
@@ -70855,10 +70285,10 @@
         <v>5</v>
       </c>
       <c r="C3056" t="s">
-        <v>5872</v>
+        <v>5873</v>
       </c>
       <c r="D3056" t="s">
-        <v>5873</v>
+        <v>5874</v>
       </c>
       <c r="E3056" t="s">
         <v>8</v>
@@ -70872,10 +70302,10 @@
         <v>5</v>
       </c>
       <c r="C3057" t="s">
-        <v>5874</v>
+        <v>5875</v>
       </c>
       <c r="D3057" t="s">
-        <v>5875</v>
+        <v>5876</v>
       </c>
       <c r="E3057" t="s">
         <v>8</v>
@@ -70889,10 +70319,10 @@
         <v>5</v>
       </c>
       <c r="C3058" t="s">
-        <v>5876</v>
+        <v>5877</v>
       </c>
       <c r="D3058" t="s">
-        <v>4213</v>
+        <v>5878</v>
       </c>
       <c r="E3058" t="s">
         <v>8</v>
@@ -70906,10 +70336,10 @@
         <v>5</v>
       </c>
       <c r="C3059" t="s">
-        <v>5877</v>
+        <v>5879</v>
       </c>
       <c r="D3059" t="s">
-        <v>5878</v>
+        <v>5880</v>
       </c>
       <c r="E3059" t="s">
         <v>8</v>
@@ -70923,10 +70353,10 @@
         <v>5</v>
       </c>
       <c r="C3060" t="s">
-        <v>5879</v>
+        <v>5881</v>
       </c>
       <c r="D3060" t="s">
-        <v>5880</v>
+        <v>5882</v>
       </c>
       <c r="E3060" t="s">
         <v>8</v>
@@ -70940,10 +70370,10 @@
         <v>5</v>
       </c>
       <c r="C3061" t="s">
-        <v>5881</v>
+        <v>5883</v>
       </c>
       <c r="D3061" t="s">
-        <v>5882</v>
+        <v>5884</v>
       </c>
       <c r="E3061" t="s">
         <v>8</v>
@@ -70954,13 +70384,13 @@
         <v>5</v>
       </c>
       <c r="B3062" t="s">
-        <v>5883</v>
+        <v>5885</v>
       </c>
       <c r="C3062" t="s">
-        <v>5884</v>
+        <v>5886</v>
       </c>
       <c r="D3062" t="s">
-        <v>5885</v>
+        <v>5887</v>
       </c>
       <c r="E3062" t="s">
         <v>8</v>
@@ -70974,10 +70404,10 @@
         <v>5</v>
       </c>
       <c r="C3063" t="s">
-        <v>5886</v>
+        <v>5888</v>
       </c>
       <c r="D3063" t="s">
-        <v>5887</v>
+        <v>5889</v>
       </c>
       <c r="E3063" t="s">
         <v>8</v>
@@ -70991,10 +70421,10 @@
         <v>5</v>
       </c>
       <c r="C3064" t="s">
-        <v>5888</v>
+        <v>5890</v>
       </c>
       <c r="D3064" t="s">
-        <v>4483</v>
+        <v>4241</v>
       </c>
       <c r="E3064" t="s">
         <v>8</v>
@@ -71008,10 +70438,10 @@
         <v>5</v>
       </c>
       <c r="C3065" t="s">
-        <v>5889</v>
+        <v>5891</v>
       </c>
       <c r="D3065" t="s">
-        <v>5890</v>
+        <v>5892</v>
       </c>
       <c r="E3065" t="s">
         <v>8</v>
@@ -71025,10 +70455,10 @@
         <v>5</v>
       </c>
       <c r="C3066" t="s">
-        <v>5891</v>
+        <v>5893</v>
       </c>
       <c r="D3066" t="s">
-        <v>5892</v>
+        <v>5894</v>
       </c>
       <c r="E3066" t="s">
         <v>8</v>
@@ -71042,10 +70472,10 @@
         <v>5</v>
       </c>
       <c r="C3067" t="s">
-        <v>5893</v>
+        <v>5895</v>
       </c>
       <c r="D3067" t="s">
-        <v>5894</v>
+        <v>5896</v>
       </c>
       <c r="E3067" t="s">
         <v>8</v>
@@ -71059,10 +70489,10 @@
         <v>5</v>
       </c>
       <c r="C3068" t="s">
-        <v>5895</v>
+        <v>5897</v>
       </c>
       <c r="D3068" t="s">
-        <v>5896</v>
+        <v>5898</v>
       </c>
       <c r="E3068" t="s">
         <v>8</v>
@@ -71076,10 +70506,10 @@
         <v>5</v>
       </c>
       <c r="C3069" t="s">
-        <v>5897</v>
+        <v>5899</v>
       </c>
       <c r="D3069" t="s">
-        <v>5898</v>
+        <v>5900</v>
       </c>
       <c r="E3069" t="s">
         <v>8</v>
@@ -71093,10 +70523,10 @@
         <v>5</v>
       </c>
       <c r="C3070" t="s">
-        <v>5899</v>
+        <v>5901</v>
       </c>
       <c r="D3070" t="s">
-        <v>5900</v>
+        <v>5902</v>
       </c>
       <c r="E3070" t="s">
         <v>8</v>
@@ -71110,10 +70540,10 @@
         <v>5</v>
       </c>
       <c r="C3071" t="s">
-        <v>5901</v>
+        <v>5903</v>
       </c>
       <c r="D3071" t="s">
-        <v>5902</v>
+        <v>5904</v>
       </c>
       <c r="E3071" t="s">
         <v>8</v>
@@ -71127,10 +70557,10 @@
         <v>5</v>
       </c>
       <c r="C3072" t="s">
-        <v>5903</v>
+        <v>5905</v>
       </c>
       <c r="D3072" t="s">
-        <v>5904</v>
+        <v>5905</v>
       </c>
       <c r="E3072" t="s">
         <v>8</v>
@@ -71144,7 +70574,7 @@
         <v>5</v>
       </c>
       <c r="C3073" t="s">
-        <v>5905</v>
+        <v>5906</v>
       </c>
       <c r="D3073" t="s">
         <v>5906</v>
@@ -71164,7 +70594,7 @@
         <v>5907</v>
       </c>
       <c r="D3074" t="s">
-        <v>5908</v>
+        <v>4483</v>
       </c>
       <c r="E3074" t="s">
         <v>8</v>
@@ -71178,10 +70608,10 @@
         <v>5</v>
       </c>
       <c r="C3075" t="s">
-        <v>5909</v>
+        <v>5908</v>
       </c>
       <c r="D3075" t="s">
-        <v>5910</v>
+        <v>1660</v>
       </c>
       <c r="E3075" t="s">
         <v>8</v>
@@ -71195,10 +70625,10 @@
         <v>5</v>
       </c>
       <c r="C3076" t="s">
-        <v>5911</v>
+        <v>5909</v>
       </c>
       <c r="D3076" t="s">
-        <v>5912</v>
+        <v>3500</v>
       </c>
       <c r="E3076" t="s">
         <v>8</v>
@@ -71212,10 +70642,10 @@
         <v>5</v>
       </c>
       <c r="C3077" t="s">
-        <v>5913</v>
+        <v>5910</v>
       </c>
       <c r="D3077" t="s">
-        <v>5914</v>
+        <v>117</v>
       </c>
       <c r="E3077" t="s">
         <v>8</v>
@@ -71229,10 +70659,10 @@
         <v>5</v>
       </c>
       <c r="C3078" t="s">
-        <v>5915</v>
+        <v>5911</v>
       </c>
       <c r="D3078" t="s">
-        <v>5916</v>
+        <v>5912</v>
       </c>
       <c r="E3078" t="s">
         <v>8</v>
@@ -71246,10 +70676,10 @@
         <v>5</v>
       </c>
       <c r="C3079" t="s">
-        <v>5917</v>
+        <v>5913</v>
       </c>
       <c r="D3079" t="s">
-        <v>5918</v>
+        <v>5914</v>
       </c>
       <c r="E3079" t="s">
         <v>8</v>
@@ -71263,10 +70693,10 @@
         <v>5</v>
       </c>
       <c r="C3080" t="s">
-        <v>5919</v>
+        <v>5915</v>
       </c>
       <c r="D3080" t="s">
-        <v>5920</v>
+        <v>5916</v>
       </c>
       <c r="E3080" t="s">
         <v>8</v>
@@ -71280,10 +70710,10 @@
         <v>5</v>
       </c>
       <c r="C3081" t="s">
-        <v>5921</v>
+        <v>5917</v>
       </c>
       <c r="D3081" t="s">
-        <v>5922</v>
+        <v>5918</v>
       </c>
       <c r="E3081" t="s">
         <v>8</v>
@@ -71297,10 +70727,10 @@
         <v>5</v>
       </c>
       <c r="C3082" t="s">
-        <v>5923</v>
+        <v>5919</v>
       </c>
       <c r="D3082" t="s">
-        <v>5924</v>
+        <v>5920</v>
       </c>
       <c r="E3082" t="s">
         <v>8</v>
@@ -71314,10 +70744,10 @@
         <v>5</v>
       </c>
       <c r="C3083" t="s">
-        <v>5925</v>
+        <v>5921</v>
       </c>
       <c r="D3083" t="s">
-        <v>5926</v>
+        <v>5922</v>
       </c>
       <c r="E3083" t="s">
         <v>8</v>
@@ -71331,10 +70761,10 @@
         <v>5</v>
       </c>
       <c r="C3084" t="s">
-        <v>5927</v>
+        <v>5923</v>
       </c>
       <c r="D3084" t="s">
-        <v>5928</v>
+        <v>5924</v>
       </c>
       <c r="E3084" t="s">
         <v>8</v>
@@ -71348,10 +70778,10 @@
         <v>5</v>
       </c>
       <c r="C3085" t="s">
-        <v>5929</v>
+        <v>5925</v>
       </c>
       <c r="D3085" t="s">
-        <v>5930</v>
+        <v>5926</v>
       </c>
       <c r="E3085" t="s">
         <v>8</v>
@@ -71365,10 +70795,10 @@
         <v>5</v>
       </c>
       <c r="C3086" t="s">
-        <v>5931</v>
+        <v>5927</v>
       </c>
       <c r="D3086" t="s">
-        <v>5932</v>
+        <v>5927</v>
       </c>
       <c r="E3086" t="s">
         <v>8</v>
@@ -71382,10 +70812,10 @@
         <v>5</v>
       </c>
       <c r="C3087" t="s">
-        <v>5933</v>
+        <v>5928</v>
       </c>
       <c r="D3087" t="s">
-        <v>5934</v>
+        <v>5929</v>
       </c>
       <c r="E3087" t="s">
         <v>8</v>
@@ -71399,10 +70829,10 @@
         <v>5</v>
       </c>
       <c r="C3088" t="s">
-        <v>5935</v>
+        <v>5930</v>
       </c>
       <c r="D3088" t="s">
-        <v>5936</v>
+        <v>5931</v>
       </c>
       <c r="E3088" t="s">
         <v>8</v>
@@ -71416,10 +70846,10 @@
         <v>5</v>
       </c>
       <c r="C3089" t="s">
-        <v>5937</v>
+        <v>5932</v>
       </c>
       <c r="D3089" t="s">
-        <v>5938</v>
+        <v>5933</v>
       </c>
       <c r="E3089" t="s">
         <v>8</v>
@@ -71433,10 +70863,10 @@
         <v>5</v>
       </c>
       <c r="C3090" t="s">
-        <v>5939</v>
+        <v>5934</v>
       </c>
       <c r="D3090" t="s">
-        <v>5940</v>
+        <v>5935</v>
       </c>
       <c r="E3090" t="s">
         <v>8</v>
@@ -71450,10 +70880,10 @@
         <v>5</v>
       </c>
       <c r="C3091" t="s">
-        <v>5941</v>
+        <v>5936</v>
       </c>
       <c r="D3091" t="s">
-        <v>5942</v>
+        <v>5937</v>
       </c>
       <c r="E3091" t="s">
         <v>8</v>
@@ -71467,10 +70897,10 @@
         <v>5</v>
       </c>
       <c r="C3092" t="s">
-        <v>5943</v>
+        <v>5938</v>
       </c>
       <c r="D3092" t="s">
-        <v>1920</v>
+        <v>5939</v>
       </c>
       <c r="E3092" t="s">
         <v>8</v>
@@ -71484,10 +70914,10 @@
         <v>5</v>
       </c>
       <c r="C3093" t="s">
-        <v>5944</v>
+        <v>5940</v>
       </c>
       <c r="D3093" t="s">
-        <v>5945</v>
+        <v>5941</v>
       </c>
       <c r="E3093" t="s">
         <v>8</v>
@@ -71501,10 +70931,10 @@
         <v>5</v>
       </c>
       <c r="C3094" t="s">
-        <v>5946</v>
+        <v>5942</v>
       </c>
       <c r="D3094" t="s">
-        <v>5947</v>
+        <v>5942</v>
       </c>
       <c r="E3094" t="s">
         <v>8</v>
@@ -71518,10 +70948,10 @@
         <v>5</v>
       </c>
       <c r="C3095" t="s">
-        <v>5948</v>
+        <v>5943</v>
       </c>
       <c r="D3095" t="s">
-        <v>5949</v>
+        <v>5944</v>
       </c>
       <c r="E3095" t="s">
         <v>8</v>
@@ -71535,10 +70965,10 @@
         <v>5</v>
       </c>
       <c r="C3096" t="s">
-        <v>5950</v>
+        <v>5945</v>
       </c>
       <c r="D3096" t="s">
-        <v>5951</v>
+        <v>5946</v>
       </c>
       <c r="E3096" t="s">
         <v>8</v>
@@ -71552,10 +70982,10 @@
         <v>5</v>
       </c>
       <c r="C3097" t="s">
-        <v>5952</v>
+        <v>5947</v>
       </c>
       <c r="D3097" t="s">
-        <v>5953</v>
+        <v>5948</v>
       </c>
       <c r="E3097" t="s">
         <v>8</v>
@@ -71569,10 +70999,10 @@
         <v>5</v>
       </c>
       <c r="C3098" t="s">
-        <v>5954</v>
+        <v>5949</v>
       </c>
       <c r="D3098" t="s">
-        <v>5955</v>
+        <v>5950</v>
       </c>
       <c r="E3098" t="s">
         <v>8</v>
@@ -71586,10 +71016,10 @@
         <v>5</v>
       </c>
       <c r="C3099" t="s">
-        <v>5956</v>
+        <v>5951</v>
       </c>
       <c r="D3099" t="s">
-        <v>5956</v>
+        <v>5952</v>
       </c>
       <c r="E3099" t="s">
         <v>8</v>
@@ -71603,10 +71033,10 @@
         <v>5</v>
       </c>
       <c r="C3100" t="s">
-        <v>5957</v>
+        <v>5953</v>
       </c>
       <c r="D3100" t="s">
-        <v>5957</v>
+        <v>5954</v>
       </c>
       <c r="E3100" t="s">
         <v>8</v>
@@ -71620,10 +71050,10 @@
         <v>5</v>
       </c>
       <c r="C3101" t="s">
-        <v>5958</v>
+        <v>5955</v>
       </c>
       <c r="D3101" t="s">
-        <v>5959</v>
+        <v>1518</v>
       </c>
       <c r="E3101" t="s">
         <v>8</v>
@@ -71637,10 +71067,10 @@
         <v>5</v>
       </c>
       <c r="C3102" t="s">
-        <v>5960</v>
+        <v>5956</v>
       </c>
       <c r="D3102" t="s">
-        <v>5961</v>
+        <v>5957</v>
       </c>
       <c r="E3102" t="s">
         <v>8</v>
@@ -71654,10 +71084,10 @@
         <v>5</v>
       </c>
       <c r="C3103" t="s">
-        <v>5962</v>
+        <v>5958</v>
       </c>
       <c r="D3103" t="s">
-        <v>5962</v>
+        <v>5959</v>
       </c>
       <c r="E3103" t="s">
         <v>8</v>
@@ -71671,10 +71101,10 @@
         <v>5</v>
       </c>
       <c r="C3104" t="s">
-        <v>5963</v>
+        <v>5960</v>
       </c>
       <c r="D3104" t="s">
-        <v>5964</v>
+        <v>5961</v>
       </c>
       <c r="E3104" t="s">
         <v>8</v>
@@ -71688,10 +71118,10 @@
         <v>5</v>
       </c>
       <c r="C3105" t="s">
-        <v>5965</v>
+        <v>5962</v>
       </c>
       <c r="D3105" t="s">
-        <v>5966</v>
+        <v>5963</v>
       </c>
       <c r="E3105" t="s">
         <v>8</v>
@@ -71705,10 +71135,10 @@
         <v>5</v>
       </c>
       <c r="C3106" t="s">
-        <v>5967</v>
+        <v>5964</v>
       </c>
       <c r="D3106" t="s">
-        <v>5968</v>
+        <v>5965</v>
       </c>
       <c r="E3106" t="s">
         <v>8</v>
@@ -71722,10 +71152,10 @@
         <v>5</v>
       </c>
       <c r="C3107" t="s">
-        <v>5969</v>
+        <v>5966</v>
       </c>
       <c r="D3107" t="s">
-        <v>5970</v>
+        <v>5967</v>
       </c>
       <c r="E3107" t="s">
         <v>8</v>
@@ -71739,10 +71169,10 @@
         <v>5</v>
       </c>
       <c r="C3108" t="s">
-        <v>5971</v>
+        <v>5968</v>
       </c>
       <c r="D3108" t="s">
-        <v>5972</v>
+        <v>5969</v>
       </c>
       <c r="E3108" t="s">
         <v>8</v>
@@ -71755,11 +71185,11 @@
       <c r="B3109" t="s">
         <v>5</v>
       </c>
-      <c r="C3109" t="s">
-        <v>5973</v>
-      </c>
-      <c r="D3109" t="s">
-        <v>5974</v>
+      <c r="C3109">
+        <v>404</v>
+      </c>
+      <c r="D3109">
+        <v>404</v>
       </c>
       <c r="E3109" t="s">
         <v>8</v>
@@ -71772,11 +71202,11 @@
       <c r="B3110" t="s">
         <v>5</v>
       </c>
-      <c r="C3110">
-        <v>404</v>
-      </c>
-      <c r="D3110">
-        <v>404</v>
+      <c r="C3110" t="s">
+        <v>5970</v>
+      </c>
+      <c r="D3110" t="s">
+        <v>5971</v>
       </c>
       <c r="E3110" t="s">
         <v>8</v>
@@ -71790,10 +71220,10 @@
         <v>5</v>
       </c>
       <c r="C3111" t="s">
-        <v>5975</v>
+        <v>5972</v>
       </c>
       <c r="D3111" t="s">
-        <v>5975</v>
+        <v>5973</v>
       </c>
       <c r="E3111" t="s">
         <v>8</v>
@@ -71807,10 +71237,10 @@
         <v>5</v>
       </c>
       <c r="C3112" t="s">
-        <v>5976</v>
+        <v>5974</v>
       </c>
       <c r="D3112" t="s">
-        <v>5976</v>
+        <v>5975</v>
       </c>
       <c r="E3112" t="s">
         <v>8</v>
@@ -71824,10 +71254,10 @@
         <v>5</v>
       </c>
       <c r="C3113" t="s">
+        <v>5976</v>
+      </c>
+      <c r="D3113" t="s">
         <v>5977</v>
-      </c>
-      <c r="D3113" t="s">
-        <v>5978</v>
       </c>
       <c r="E3113" t="s">
         <v>8</v>
@@ -71841,10 +71271,10 @@
         <v>5</v>
       </c>
       <c r="C3114" t="s">
+        <v>5978</v>
+      </c>
+      <c r="D3114" t="s">
         <v>5979</v>
-      </c>
-      <c r="D3114" t="s">
-        <v>5980</v>
       </c>
       <c r="E3114" t="s">
         <v>8</v>
@@ -71858,10 +71288,10 @@
         <v>5</v>
       </c>
       <c r="C3115" t="s">
+        <v>5980</v>
+      </c>
+      <c r="D3115" t="s">
         <v>5981</v>
-      </c>
-      <c r="D3115" t="s">
-        <v>5982</v>
       </c>
       <c r="E3115" t="s">
         <v>8</v>
@@ -71875,10 +71305,10 @@
         <v>5</v>
       </c>
       <c r="C3116" t="s">
+        <v>5982</v>
+      </c>
+      <c r="D3116" t="s">
         <v>5983</v>
-      </c>
-      <c r="D3116" t="s">
-        <v>5984</v>
       </c>
       <c r="E3116" t="s">
         <v>8</v>
@@ -71892,10 +71322,10 @@
         <v>5</v>
       </c>
       <c r="C3117" t="s">
+        <v>5984</v>
+      </c>
+      <c r="D3117" t="s">
         <v>5985</v>
-      </c>
-      <c r="D3117" t="s">
-        <v>5986</v>
       </c>
       <c r="E3117" t="s">
         <v>8</v>
@@ -71909,10 +71339,10 @@
         <v>5</v>
       </c>
       <c r="C3118" t="s">
+        <v>5986</v>
+      </c>
+      <c r="D3118" t="s">
         <v>5987</v>
-      </c>
-      <c r="D3118" t="s">
-        <v>5988</v>
       </c>
       <c r="E3118" t="s">
         <v>8</v>
@@ -71926,1678 +71356,12 @@
         <v>5</v>
       </c>
       <c r="C3119" t="s">
+        <v>5988</v>
+      </c>
+      <c r="D3119" t="s">
         <v>5989</v>
       </c>
-      <c r="D3119" t="s">
-        <v>5990</v>
-      </c>
       <c r="E3119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3120" spans="1:5">
-      <c r="A3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3120" t="s">
-        <v>5991</v>
-      </c>
-      <c r="D3120" t="s">
-        <v>5992</v>
-      </c>
-      <c r="E3120" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3121" spans="1:5">
-      <c r="A3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3121" t="s">
-        <v>5993</v>
-      </c>
-      <c r="D3121" t="s">
-        <v>5994</v>
-      </c>
-      <c r="E3121" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3122" spans="1:5">
-      <c r="A3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3122" t="s">
-        <v>5995</v>
-      </c>
-      <c r="D3122" t="s">
-        <v>5996</v>
-      </c>
-      <c r="E3122" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3123" spans="1:5">
-      <c r="A3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3123" t="s">
-        <v>5997</v>
-      </c>
-      <c r="D3123" t="s">
-        <v>5998</v>
-      </c>
-      <c r="E3123" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3124" spans="1:5">
-      <c r="A3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3124" t="s">
-        <v>5999</v>
-      </c>
-      <c r="D3124" t="s">
-        <v>6000</v>
-      </c>
-      <c r="E3124" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3125" spans="1:5">
-      <c r="A3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3125" t="s">
-        <v>6001</v>
-      </c>
-      <c r="D3125" t="s">
-        <v>6002</v>
-      </c>
-      <c r="E3125" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3126" spans="1:5">
-      <c r="A3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3126" t="s">
-        <v>6003</v>
-      </c>
-      <c r="D3126" t="s">
-        <v>6004</v>
-      </c>
-      <c r="E3126" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3127" spans="1:5">
-      <c r="A3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3127" t="s">
-        <v>6005</v>
-      </c>
-      <c r="D3127" t="s">
-        <v>6006</v>
-      </c>
-      <c r="E3127" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3128" spans="1:5">
-      <c r="A3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3128" t="s">
-        <v>6007</v>
-      </c>
-      <c r="D3128" t="s">
-        <v>6008</v>
-      </c>
-      <c r="E3128" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3129" spans="1:5">
-      <c r="A3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3129" t="s">
-        <v>6009</v>
-      </c>
-      <c r="D3129" t="s">
-        <v>6010</v>
-      </c>
-      <c r="E3129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3130" spans="1:5">
-      <c r="A3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3130" t="s">
-        <v>6011</v>
-      </c>
-      <c r="D3130" t="s">
-        <v>6012</v>
-      </c>
-      <c r="E3130" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3131" spans="1:5">
-      <c r="A3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3131" t="s">
-        <v>6013</v>
-      </c>
-      <c r="D3131" t="s">
-        <v>6014</v>
-      </c>
-      <c r="E3131" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3132" spans="1:5">
-      <c r="A3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3132" t="s">
-        <v>6015</v>
-      </c>
-      <c r="D3132" t="s">
-        <v>6016</v>
-      </c>
-      <c r="E3132" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3133" spans="1:5">
-      <c r="A3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3133" t="s">
-        <v>6017</v>
-      </c>
-      <c r="D3133" t="s">
-        <v>6018</v>
-      </c>
-      <c r="E3133" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3134" spans="1:5">
-      <c r="A3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3134" t="s">
-        <v>6019</v>
-      </c>
-      <c r="D3134" t="s">
-        <v>6019</v>
-      </c>
-      <c r="E3134" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3135" spans="1:5">
-      <c r="A3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3135" t="s">
-        <v>6020</v>
-      </c>
-      <c r="D3135" t="s">
-        <v>6021</v>
-      </c>
-      <c r="E3135" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3136" spans="1:5">
-      <c r="A3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3136" t="s">
-        <v>6022</v>
-      </c>
-      <c r="D3136" t="s">
-        <v>6023</v>
-      </c>
-      <c r="E3136" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3137" spans="1:5">
-      <c r="A3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3137" t="s">
-        <v>6024</v>
-      </c>
-      <c r="D3137" t="s">
-        <v>6025</v>
-      </c>
-      <c r="E3137" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3138" spans="1:5">
-      <c r="A3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3138" t="s">
-        <v>6026</v>
-      </c>
-      <c r="D3138" t="s">
-        <v>6027</v>
-      </c>
-      <c r="E3138" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3139" spans="1:5">
-      <c r="A3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3139" t="s">
-        <v>6028</v>
-      </c>
-      <c r="D3139" t="s">
-        <v>6029</v>
-      </c>
-      <c r="E3139" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3140" spans="1:5">
-      <c r="A3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3140" t="s">
-        <v>6030</v>
-      </c>
-      <c r="D3140" t="s">
-        <v>6031</v>
-      </c>
-      <c r="E3140" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3141" spans="1:5">
-      <c r="A3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3141" t="s">
-        <v>6032</v>
-      </c>
-      <c r="D3141" t="s">
-        <v>6033</v>
-      </c>
-      <c r="E3141" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3142" spans="1:5">
-      <c r="A3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3142" t="s">
-        <v>6034</v>
-      </c>
-      <c r="D3142" t="s">
-        <v>6035</v>
-      </c>
-      <c r="E3142" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3143" spans="1:5">
-      <c r="A3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3143" t="s">
-        <v>6036</v>
-      </c>
-      <c r="D3143" t="s">
-        <v>6037</v>
-      </c>
-      <c r="E3143" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3144" spans="1:5">
-      <c r="A3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3144" t="s">
-        <v>6038</v>
-      </c>
-      <c r="D3144" t="s">
-        <v>6039</v>
-      </c>
-      <c r="E3144" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3145" spans="1:5">
-      <c r="A3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3145" t="s">
-        <v>6040</v>
-      </c>
-      <c r="D3145" t="s">
-        <v>6041</v>
-      </c>
-      <c r="E3145" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3146" spans="1:5">
-      <c r="A3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3146" t="s">
-        <v>6042</v>
-      </c>
-      <c r="D3146" t="s">
-        <v>6043</v>
-      </c>
-      <c r="E3146" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3147" spans="1:5">
-      <c r="A3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3147" t="s">
-        <v>6044</v>
-      </c>
-      <c r="D3147" t="s">
-        <v>6045</v>
-      </c>
-      <c r="E3147" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3148" spans="1:5">
-      <c r="A3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3148" t="s">
-        <v>6046</v>
-      </c>
-      <c r="D3148" t="s">
-        <v>6047</v>
-      </c>
-      <c r="E3148" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3149" spans="1:5">
-      <c r="A3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3149" t="s">
-        <v>6048</v>
-      </c>
-      <c r="D3149" t="s">
-        <v>6049</v>
-      </c>
-      <c r="E3149" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3150" spans="1:5">
-      <c r="A3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3150" t="s">
-        <v>6050</v>
-      </c>
-      <c r="D3150" t="s">
-        <v>6051</v>
-      </c>
-      <c r="E3150" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3151" spans="1:5">
-      <c r="A3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3151" t="s">
-        <v>6052</v>
-      </c>
-      <c r="D3151" t="s">
-        <v>6053</v>
-      </c>
-      <c r="E3151" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3152" spans="1:5">
-      <c r="A3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3152" t="s">
-        <v>6054</v>
-      </c>
-      <c r="D3152" t="s">
-        <v>6055</v>
-      </c>
-      <c r="E3152" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3153" spans="1:5">
-      <c r="A3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3153" t="s">
-        <v>6056</v>
-      </c>
-      <c r="D3153" t="s">
-        <v>6057</v>
-      </c>
-      <c r="E3153" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3154" spans="1:5">
-      <c r="A3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3154" t="s">
-        <v>6058</v>
-      </c>
-      <c r="D3154" t="s">
-        <v>6059</v>
-      </c>
-      <c r="E3154" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3155" spans="1:5">
-      <c r="A3155" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3155" t="s">
-        <v>6060</v>
-      </c>
-      <c r="C3155" t="s">
-        <v>6061</v>
-      </c>
-      <c r="D3155" t="s">
-        <v>6062</v>
-      </c>
-      <c r="E3155" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3156" spans="1:5">
-      <c r="A3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3156" t="s">
-        <v>6063</v>
-      </c>
-      <c r="D3156" t="s">
-        <v>6064</v>
-      </c>
-      <c r="E3156" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3157" spans="1:5">
-      <c r="A3157" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3157" t="s">
-        <v>5883</v>
-      </c>
-      <c r="C3157" t="s">
-        <v>6065</v>
-      </c>
-      <c r="D3157" t="s">
-        <v>6066</v>
-      </c>
-      <c r="E3157" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3158" spans="1:5">
-      <c r="A3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3158" t="s">
-        <v>6067</v>
-      </c>
-      <c r="D3158" t="s">
-        <v>6068</v>
-      </c>
-      <c r="E3158" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3159" spans="1:5">
-      <c r="A3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3159" t="s">
-        <v>6069</v>
-      </c>
-      <c r="D3159" t="s">
-        <v>6069</v>
-      </c>
-      <c r="E3159" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3160" spans="1:5">
-      <c r="A3160" t="s">
-        <v>6070</v>
-      </c>
-      <c r="B3160" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3160" t="s">
-        <v>6071</v>
-      </c>
-      <c r="D3160" t="s">
-        <v>6071</v>
-      </c>
-      <c r="E3160" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3161" spans="1:5">
-      <c r="A3161" t="s">
-        <v>6070</v>
-      </c>
-      <c r="B3161" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3161" t="s">
-        <v>6072</v>
-      </c>
-      <c r="D3161" t="s">
-        <v>6073</v>
-      </c>
-      <c r="E3161" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3162" spans="1:5">
-      <c r="A3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3162" t="s">
-        <v>6074</v>
-      </c>
-      <c r="D3162" t="s">
-        <v>6074</v>
-      </c>
-      <c r="E3162" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3163" spans="1:5">
-      <c r="A3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3163" t="s">
-        <v>6075</v>
-      </c>
-      <c r="D3163" t="s">
-        <v>6075</v>
-      </c>
-      <c r="E3163" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3164" spans="1:5">
-      <c r="A3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3164" t="s">
-        <v>6076</v>
-      </c>
-      <c r="D3164" t="s">
-        <v>6077</v>
-      </c>
-      <c r="E3164" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3165" spans="1:5">
-      <c r="A3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3165" t="s">
-        <v>6078</v>
-      </c>
-      <c r="D3165" t="s">
-        <v>6078</v>
-      </c>
-      <c r="E3165" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3166" spans="1:5">
-      <c r="A3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3166" t="s">
-        <v>6079</v>
-      </c>
-      <c r="D3166" t="s">
-        <v>6080</v>
-      </c>
-      <c r="E3166" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3167" spans="1:5">
-      <c r="A3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3167" t="s">
-        <v>6081</v>
-      </c>
-      <c r="D3167" t="s">
-        <v>6082</v>
-      </c>
-      <c r="E3167" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3168" spans="1:5">
-      <c r="A3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3168" t="s">
-        <v>6083</v>
-      </c>
-      <c r="D3168" t="s">
-        <v>6084</v>
-      </c>
-      <c r="E3168" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3169" spans="1:5">
-      <c r="A3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3169" t="s">
-        <v>6085</v>
-      </c>
-      <c r="D3169" t="s">
-        <v>6086</v>
-      </c>
-      <c r="E3169" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3170" spans="1:5">
-      <c r="A3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3170" t="s">
-        <v>6087</v>
-      </c>
-      <c r="D3170" t="s">
-        <v>6088</v>
-      </c>
-      <c r="E3170" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3171" spans="1:5">
-      <c r="A3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3171" t="s">
-        <v>6089</v>
-      </c>
-      <c r="D3171" t="s">
-        <v>3172</v>
-      </c>
-      <c r="E3171" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3172" spans="1:5">
-      <c r="A3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3172" t="s">
-        <v>6090</v>
-      </c>
-      <c r="D3172" t="s">
-        <v>6091</v>
-      </c>
-      <c r="E3172" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3173" spans="1:5">
-      <c r="A3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3173" t="s">
-        <v>6092</v>
-      </c>
-      <c r="D3173" t="s">
-        <v>1636</v>
-      </c>
-      <c r="E3173" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3174" spans="1:5">
-      <c r="A3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3174" t="s">
-        <v>6093</v>
-      </c>
-      <c r="D3174" t="s">
-        <v>6094</v>
-      </c>
-      <c r="E3174" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3175" spans="1:5">
-      <c r="A3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3175" t="s">
-        <v>6095</v>
-      </c>
-      <c r="D3175" t="s">
-        <v>6096</v>
-      </c>
-      <c r="E3175" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3176" spans="1:5">
-      <c r="A3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3176" t="s">
-        <v>6097</v>
-      </c>
-      <c r="D3176" t="s">
-        <v>6098</v>
-      </c>
-      <c r="E3176" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3177" spans="1:5">
-      <c r="A3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3177" t="s">
-        <v>6099</v>
-      </c>
-      <c r="D3177" t="s">
-        <v>6100</v>
-      </c>
-      <c r="E3177" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3178" spans="1:5">
-      <c r="A3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3178" t="s">
-        <v>6101</v>
-      </c>
-      <c r="D3178" t="s">
-        <v>6102</v>
-      </c>
-      <c r="E3178" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3179" spans="1:5">
-      <c r="A3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3179" t="s">
-        <v>6103</v>
-      </c>
-      <c r="D3179" t="s">
-        <v>6104</v>
-      </c>
-      <c r="E3179" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3180" spans="1:5">
-      <c r="A3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3180" t="s">
-        <v>6105</v>
-      </c>
-      <c r="D3180" t="s">
-        <v>6106</v>
-      </c>
-      <c r="E3180" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3181" spans="1:5">
-      <c r="A3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3181" t="s">
-        <v>6107</v>
-      </c>
-      <c r="D3181" t="s">
-        <v>6108</v>
-      </c>
-      <c r="E3181" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3182" spans="1:5">
-      <c r="A3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3182" t="s">
-        <v>6109</v>
-      </c>
-      <c r="D3182" t="s">
-        <v>6110</v>
-      </c>
-      <c r="E3182" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3183" spans="1:5">
-      <c r="A3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3183" t="s">
-        <v>6111</v>
-      </c>
-      <c r="D3183" t="s">
-        <v>6112</v>
-      </c>
-      <c r="E3183" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3184" spans="1:5">
-      <c r="A3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3184" t="s">
-        <v>6113</v>
-      </c>
-      <c r="D3184" t="s">
-        <v>911</v>
-      </c>
-      <c r="E3184" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3185" spans="1:5">
-      <c r="A3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3185" t="s">
-        <v>6114</v>
-      </c>
-      <c r="D3185" t="s">
-        <v>6115</v>
-      </c>
-      <c r="E3185" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3186" spans="1:5">
-      <c r="A3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3186" t="s">
-        <v>6116</v>
-      </c>
-      <c r="D3186" t="s">
-        <v>6117</v>
-      </c>
-      <c r="E3186" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3187" spans="1:5">
-      <c r="A3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3187" t="s">
-        <v>6118</v>
-      </c>
-      <c r="D3187" t="s">
-        <v>6119</v>
-      </c>
-      <c r="E3187" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3188" spans="1:5">
-      <c r="A3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3188" t="s">
-        <v>6120</v>
-      </c>
-      <c r="D3188" t="s">
-        <v>6121</v>
-      </c>
-      <c r="E3188" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3189" spans="1:5">
-      <c r="A3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3189" t="s">
-        <v>6122</v>
-      </c>
-      <c r="D3189" t="s">
-        <v>6123</v>
-      </c>
-      <c r="E3189" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3190" spans="1:5">
-      <c r="A3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3190" t="s">
-        <v>6124</v>
-      </c>
-      <c r="D3190" t="s">
-        <v>6125</v>
-      </c>
-      <c r="E3190" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3191" spans="1:5">
-      <c r="A3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3191" t="s">
-        <v>6126</v>
-      </c>
-      <c r="D3191" t="s">
-        <v>6127</v>
-      </c>
-      <c r="E3191" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3192" spans="1:5">
-      <c r="A3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3192" t="s">
-        <v>6128</v>
-      </c>
-      <c r="D3192" t="s">
-        <v>6129</v>
-      </c>
-      <c r="E3192" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3193" spans="1:5">
-      <c r="A3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3193" t="s">
-        <v>6130</v>
-      </c>
-      <c r="D3193" t="s">
-        <v>6131</v>
-      </c>
-      <c r="E3193" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3194" spans="1:5">
-      <c r="A3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3194" t="s">
-        <v>6132</v>
-      </c>
-      <c r="D3194" t="s">
-        <v>6133</v>
-      </c>
-      <c r="E3194" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3195" spans="1:5">
-      <c r="A3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3195" t="s">
-        <v>6134</v>
-      </c>
-      <c r="D3195" t="s">
-        <v>6135</v>
-      </c>
-      <c r="E3195" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3196" spans="1:5">
-      <c r="A3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3196" t="s">
-        <v>6136</v>
-      </c>
-      <c r="D3196" t="s">
-        <v>6137</v>
-      </c>
-      <c r="E3196" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3197" spans="1:5">
-      <c r="A3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3197" t="s">
-        <v>6138</v>
-      </c>
-      <c r="D3197" t="s">
-        <v>6139</v>
-      </c>
-      <c r="E3197" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3198" spans="1:5">
-      <c r="A3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3198" t="s">
-        <v>6140</v>
-      </c>
-      <c r="D3198" t="s">
-        <v>6141</v>
-      </c>
-      <c r="E3198" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3199" spans="1:5">
-      <c r="A3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3199" t="s">
-        <v>6142</v>
-      </c>
-      <c r="D3199" t="s">
-        <v>6143</v>
-      </c>
-      <c r="E3199" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3200" spans="1:5">
-      <c r="A3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3200" t="s">
-        <v>6144</v>
-      </c>
-      <c r="D3200" t="s">
-        <v>6145</v>
-      </c>
-      <c r="E3200" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3201" spans="1:5">
-      <c r="A3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3201" t="s">
-        <v>6146</v>
-      </c>
-      <c r="D3201" t="s">
-        <v>6147</v>
-      </c>
-      <c r="E3201" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3202" spans="1:5">
-      <c r="A3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3202" t="s">
-        <v>6148</v>
-      </c>
-      <c r="D3202" t="s">
-        <v>6149</v>
-      </c>
-      <c r="E3202" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3203" spans="1:5">
-      <c r="A3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3203" t="s">
-        <v>6150</v>
-      </c>
-      <c r="D3203" t="s">
-        <v>6151</v>
-      </c>
-      <c r="E3203" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3204" spans="1:5">
-      <c r="A3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3204" t="s">
-        <v>6152</v>
-      </c>
-      <c r="D3204" t="s">
-        <v>6153</v>
-      </c>
-      <c r="E3204" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3205" spans="1:5">
-      <c r="A3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3205" t="s">
-        <v>6154</v>
-      </c>
-      <c r="D3205" t="s">
-        <v>6155</v>
-      </c>
-      <c r="E3205" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3206" spans="1:5">
-      <c r="A3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3206" t="s">
-        <v>6156</v>
-      </c>
-      <c r="D3206" t="s">
-        <v>6157</v>
-      </c>
-      <c r="E3206" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3207" spans="1:5">
-      <c r="A3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3207" t="s">
-        <v>6158</v>
-      </c>
-      <c r="D3207" t="s">
-        <v>6159</v>
-      </c>
-      <c r="E3207" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3208" spans="1:5">
-      <c r="A3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3208" t="s">
-        <v>6160</v>
-      </c>
-      <c r="D3208" t="s">
-        <v>6161</v>
-      </c>
-      <c r="E3208" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3209" spans="1:5">
-      <c r="A3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3209" t="s">
-        <v>6162</v>
-      </c>
-      <c r="D3209" t="s">
-        <v>6163</v>
-      </c>
-      <c r="E3209" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3210" spans="1:5">
-      <c r="A3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3210" t="s">
-        <v>6164</v>
-      </c>
-      <c r="D3210" t="s">
-        <v>6165</v>
-      </c>
-      <c r="E3210" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3211" spans="1:5">
-      <c r="A3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3211" t="s">
-        <v>6166</v>
-      </c>
-      <c r="D3211" t="s">
-        <v>6167</v>
-      </c>
-      <c r="E3211" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3212" spans="1:5">
-      <c r="A3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3212" t="s">
-        <v>6168</v>
-      </c>
-      <c r="D3212" t="s">
-        <v>6169</v>
-      </c>
-      <c r="E3212" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3213" spans="1:5">
-      <c r="A3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3213" t="s">
-        <v>6170</v>
-      </c>
-      <c r="D3213" t="s">
-        <v>6171</v>
-      </c>
-      <c r="E3213" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3214" spans="1:5">
-      <c r="A3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3214" t="s">
-        <v>6172</v>
-      </c>
-      <c r="D3214" t="s">
-        <v>6173</v>
-      </c>
-      <c r="E3214" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3215" spans="1:5">
-      <c r="A3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3215" t="s">
-        <v>6174</v>
-      </c>
-      <c r="D3215" t="s">
-        <v>6175</v>
-      </c>
-      <c r="E3215" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3216" spans="1:5">
-      <c r="A3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3216" t="s">
-        <v>6176</v>
-      </c>
-      <c r="D3216" t="s">
-        <v>6177</v>
-      </c>
-      <c r="E3216" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3217" spans="1:5">
-      <c r="A3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3217" t="s">
-        <v>6178</v>
-      </c>
-      <c r="D3217" t="s">
-        <v>6179</v>
-      </c>
-      <c r="E3217" t="s">
         <v>8</v>
       </c>
     </row>
